--- a/data/trans_orig/P19C02-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P19C02-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F865C48-E953-4790-9F0B-42B74C8DC078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{14CD3BEE-04C3-44B9-9535-6EF1F65045D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{561E2FA3-15AF-4C72-95CD-B19C33B8121C}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{98CBF8C5-A3BC-45D7-83BC-BF77BD360C71}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="437">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue una limpieza de boca en 2007 (Tasa respuesta: 78,07%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>20,24%</t>
   </si>
   <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
   </si>
   <si>
     <t>27,93%</t>
   </si>
   <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>36,42%</t>
   </si>
   <si>
     <t>24,46%</t>
   </si>
   <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>79,76%</t>
   </si>
   <si>
-    <t>69,31%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
+    <t>69,3%</t>
+  </si>
+  <si>
+    <t>88,28%</t>
   </si>
   <si>
     <t>72,07%</t>
   </si>
   <si>
-    <t>63,77%</t>
-  </si>
-  <si>
-    <t>79,84%</t>
+    <t>63,58%</t>
+  </si>
+  <si>
+    <t>80,33%</t>
   </si>
   <si>
     <t>75,54%</t>
   </si>
   <si>
-    <t>68,89%</t>
-  </si>
-  <si>
-    <t>81,36%</t>
+    <t>68,56%</t>
+  </si>
+  <si>
+    <t>81,14%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,49 +140,55 @@
     <t>21,92%</t>
   </si>
   <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
   </si>
   <si>
     <t>21,22%</t>
   </si>
   <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
   </si>
   <si>
     <t>21,55%</t>
   </si>
   <si>
-    <t>24,33%</t>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
   </si>
   <si>
     <t>78,08%</t>
   </si>
   <si>
-    <t>74,06%</t>
-  </si>
-  <si>
-    <t>82,35%</t>
+    <t>73,69%</t>
+  </si>
+  <si>
+    <t>82,04%</t>
   </si>
   <si>
     <t>78,78%</t>
   </si>
   <si>
-    <t>74,73%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
+    <t>74,65%</t>
+  </si>
+  <si>
+    <t>82,33%</t>
   </si>
   <si>
     <t>78,45%</t>
   </si>
   <si>
-    <t>75,67%</t>
+    <t>75,62%</t>
+  </si>
+  <si>
+    <t>80,99%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -191,55 +197,55 @@
     <t>26,91%</t>
   </si>
   <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
   </si>
   <si>
     <t>28,47%</t>
   </si>
   <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>32,11%</t>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
   </si>
   <si>
     <t>27,73%</t>
   </si>
   <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
   </si>
   <si>
     <t>73,09%</t>
   </si>
   <si>
-    <t>69,18%</t>
-  </si>
-  <si>
-    <t>76,6%</t>
+    <t>68,96%</t>
+  </si>
+  <si>
+    <t>76,2%</t>
   </si>
   <si>
     <t>71,53%</t>
   </si>
   <si>
-    <t>67,89%</t>
-  </si>
-  <si>
-    <t>74,58%</t>
+    <t>68,31%</t>
+  </si>
+  <si>
+    <t>74,75%</t>
   </si>
   <si>
     <t>72,27%</t>
   </si>
   <si>
-    <t>69,89%</t>
-  </si>
-  <si>
-    <t>74,54%</t>
+    <t>69,76%</t>
+  </si>
+  <si>
+    <t>74,6%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -248,55 +254,55 @@
     <t>30,13%</t>
   </si>
   <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
   </si>
   <si>
     <t>33,52%</t>
   </si>
   <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>37,48%</t>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>37,4%</t>
   </si>
   <si>
     <t>31,88%</t>
   </si>
   <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
   </si>
   <si>
     <t>69,87%</t>
   </si>
   <si>
-    <t>65,73%</t>
-  </si>
-  <si>
-    <t>73,96%</t>
+    <t>65,68%</t>
+  </si>
+  <si>
+    <t>73,5%</t>
   </si>
   <si>
     <t>66,48%</t>
   </si>
   <si>
-    <t>62,52%</t>
-  </si>
-  <si>
-    <t>70,32%</t>
+    <t>62,6%</t>
+  </si>
+  <si>
+    <t>70,5%</t>
   </si>
   <si>
     <t>68,12%</t>
   </si>
   <si>
-    <t>65,39%</t>
-  </si>
-  <si>
-    <t>71,11%</t>
+    <t>65,29%</t>
+  </si>
+  <si>
+    <t>70,86%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -305,1033 +311,1045 @@
     <t>33,88%</t>
   </si>
   <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>37,23%</t>
   </si>
   <si>
     <t>30,99%</t>
   </si>
   <si>
-    <t>27,8%</t>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>34,21%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>66,12%</t>
+  </si>
+  <si>
+    <t>62,77%</t>
+  </si>
+  <si>
+    <t>69,53%</t>
+  </si>
+  <si>
+    <t>69,01%</t>
+  </si>
+  <si>
+    <t>65,79%</t>
+  </si>
+  <si>
+    <t>72,29%</t>
+  </si>
+  <si>
+    <t>67,66%</t>
+  </si>
+  <si>
+    <t>65,15%</t>
+  </si>
+  <si>
+    <t>70,09%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>71,38%</t>
+  </si>
+  <si>
+    <t>69,39%</t>
+  </si>
+  <si>
+    <t>73,16%</t>
+  </si>
+  <si>
+    <t>70,9%</t>
+  </si>
+  <si>
+    <t>69,22%</t>
+  </si>
+  <si>
+    <t>72,69%</t>
+  </si>
+  <si>
+    <t>71,13%</t>
+  </si>
+  <si>
+    <t>69,81%</t>
+  </si>
+  <si>
+    <t>72,4%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue una limpieza de boca en 2012 (Tasa respuesta: 86,83%)</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>39,48%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>75,71%</t>
+  </si>
+  <si>
+    <t>67,51%</t>
+  </si>
+  <si>
+    <t>83,77%</t>
+  </si>
+  <si>
+    <t>70,67%</t>
+  </si>
+  <si>
+    <t>60,52%</t>
+  </si>
+  <si>
+    <t>80,31%</t>
+  </si>
+  <si>
+    <t>73,28%</t>
+  </si>
+  <si>
+    <t>65,76%</t>
+  </si>
+  <si>
+    <t>79,26%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>78,41%</t>
+  </si>
+  <si>
+    <t>74,64%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
+  </si>
+  <si>
+    <t>71,45%</t>
+  </si>
+  <si>
+    <t>67,37%</t>
+  </si>
+  <si>
+    <t>75,4%</t>
+  </si>
+  <si>
+    <t>74,8%</t>
+  </si>
+  <si>
+    <t>71,86%</t>
+  </si>
+  <si>
+    <t>77,45%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>69,82%</t>
+  </si>
+  <si>
+    <t>66,47%</t>
+  </si>
+  <si>
+    <t>73,17%</t>
+  </si>
+  <si>
+    <t>73,54%</t>
+  </si>
+  <si>
+    <t>70,53%</t>
+  </si>
+  <si>
+    <t>76,51%</t>
+  </si>
+  <si>
+    <t>71,72%</t>
+  </si>
+  <si>
+    <t>73,92%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>37,73%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>71,36%</t>
+  </si>
+  <si>
+    <t>67,23%</t>
+  </si>
+  <si>
+    <t>74,93%</t>
+  </si>
+  <si>
+    <t>66,0%</t>
+  </si>
+  <si>
+    <t>62,27%</t>
+  </si>
+  <si>
+    <t>69,65%</t>
+  </si>
+  <si>
+    <t>68,6%</t>
+  </si>
+  <si>
+    <t>65,87%</t>
+  </si>
+  <si>
+    <t>71,29%</t>
+  </si>
+  <si>
+    <t>35,67%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>39,24%</t>
+  </si>
+  <si>
+    <t>35,56%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>38,83%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>37,88%</t>
+  </si>
+  <si>
+    <t>64,33%</t>
+  </si>
+  <si>
+    <t>60,76%</t>
+  </si>
+  <si>
+    <t>67,71%</t>
+  </si>
+  <si>
+    <t>64,44%</t>
+  </si>
+  <si>
+    <t>61,17%</t>
+  </si>
+  <si>
+    <t>67,5%</t>
+  </si>
+  <si>
+    <t>64,39%</t>
+  </si>
+  <si>
+    <t>62,12%</t>
+  </si>
+  <si>
+    <t>66,77%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>70,33%</t>
+  </si>
+  <si>
+    <t>72,12%</t>
+  </si>
+  <si>
+    <t>68,77%</t>
+  </si>
+  <si>
+    <t>67,13%</t>
+  </si>
+  <si>
+    <t>70,38%</t>
+  </si>
+  <si>
+    <t>69,52%</t>
+  </si>
+  <si>
+    <t>68,36%</t>
+  </si>
+  <si>
+    <t>70,83%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue una limpieza de boca en 2015 (Tasa respuesta: 80,03%)</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>39,81%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>42,77%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>36,94%</t>
+  </si>
+  <si>
+    <t>70,82%</t>
+  </si>
+  <si>
+    <t>60,19%</t>
+  </si>
+  <si>
+    <t>78,88%</t>
+  </si>
+  <si>
+    <t>68,84%</t>
+  </si>
+  <si>
+    <t>57,23%</t>
+  </si>
+  <si>
+    <t>77,01%</t>
+  </si>
+  <si>
+    <t>63,06%</t>
+  </si>
+  <si>
+    <t>76,17%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>71,92%</t>
+  </si>
+  <si>
+    <t>67,58%</t>
+  </si>
+  <si>
+    <t>76,3%</t>
+  </si>
+  <si>
+    <t>70,0%</t>
+  </si>
+  <si>
+    <t>74,03%</t>
+  </si>
+  <si>
+    <t>70,94%</t>
+  </si>
+  <si>
+    <t>67,91%</t>
+  </si>
+  <si>
+    <t>73,79%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>40,6%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>41,53%</t>
+  </si>
+  <si>
+    <t>37,61%</t>
+  </si>
+  <si>
+    <t>35,28%</t>
+  </si>
+  <si>
+    <t>39,83%</t>
+  </si>
+  <si>
+    <t>62,91%</t>
+  </si>
+  <si>
+    <t>59,4%</t>
+  </si>
+  <si>
+    <t>66,28%</t>
+  </si>
+  <si>
+    <t>61,9%</t>
+  </si>
+  <si>
+    <t>58,47%</t>
+  </si>
+  <si>
+    <t>65,22%</t>
+  </si>
+  <si>
+    <t>62,39%</t>
+  </si>
+  <si>
+    <t>60,17%</t>
+  </si>
+  <si>
+    <t>64,72%</t>
+  </si>
+  <si>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>40,33%</t>
+  </si>
+  <si>
+    <t>35,76%</t>
+  </si>
+  <si>
+    <t>44,22%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>39,59%</t>
+  </si>
+  <si>
+    <t>66,63%</t>
+  </si>
+  <si>
+    <t>61,92%</t>
+  </si>
+  <si>
+    <t>70,36%</t>
+  </si>
+  <si>
+    <t>59,67%</t>
+  </si>
+  <si>
+    <t>55,78%</t>
+  </si>
+  <si>
+    <t>64,24%</t>
+  </si>
+  <si>
+    <t>60,41%</t>
+  </si>
+  <si>
+    <t>65,94%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
   </si>
   <si>
     <t>34,54%</t>
   </si>
   <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>34,62%</t>
-  </si>
-  <si>
-    <t>66,12%</t>
-  </si>
-  <si>
-    <t>62,49%</t>
-  </si>
-  <si>
-    <t>69,48%</t>
-  </si>
-  <si>
-    <t>69,01%</t>
+    <t>41,64%</t>
+  </si>
+  <si>
+    <t>38,53%</t>
+  </si>
+  <si>
+    <t>35,34%</t>
+  </si>
+  <si>
+    <t>42,06%</t>
+  </si>
+  <si>
+    <t>38,28%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>40,68%</t>
+  </si>
+  <si>
+    <t>62,01%</t>
+  </si>
+  <si>
+    <t>58,36%</t>
   </si>
   <si>
     <t>65,46%</t>
   </si>
   <si>
-    <t>72,2%</t>
-  </si>
-  <si>
-    <t>67,66%</t>
-  </si>
-  <si>
-    <t>65,38%</t>
-  </si>
-  <si>
-    <t>70,12%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>71,38%</t>
-  </si>
-  <si>
-    <t>69,5%</t>
-  </si>
-  <si>
-    <t>73,12%</t>
-  </si>
-  <si>
-    <t>70,9%</t>
-  </si>
-  <si>
-    <t>69,12%</t>
-  </si>
-  <si>
-    <t>72,52%</t>
-  </si>
-  <si>
-    <t>71,13%</t>
-  </si>
-  <si>
-    <t>69,95%</t>
-  </si>
-  <si>
-    <t>72,39%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue una limpieza de boca en 2012 (Tasa respuesta: 86,83%)</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>40,54%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>75,71%</t>
-  </si>
-  <si>
-    <t>65,77%</t>
-  </si>
-  <si>
-    <t>82,94%</t>
-  </si>
-  <si>
-    <t>70,67%</t>
-  </si>
-  <si>
-    <t>59,46%</t>
-  </si>
-  <si>
-    <t>79,28%</t>
-  </si>
-  <si>
-    <t>73,28%</t>
-  </si>
-  <si>
-    <t>66,75%</t>
-  </si>
-  <si>
-    <t>79,33%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>78,41%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>71,45%</t>
-  </si>
-  <si>
-    <t>67,03%</t>
-  </si>
-  <si>
-    <t>75,35%</t>
-  </si>
-  <si>
-    <t>74,8%</t>
-  </si>
-  <si>
-    <t>72,0%</t>
-  </si>
-  <si>
-    <t>77,65%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>69,82%</t>
-  </si>
-  <si>
-    <t>66,36%</t>
-  </si>
-  <si>
-    <t>72,7%</t>
-  </si>
-  <si>
-    <t>73,54%</t>
-  </si>
-  <si>
-    <t>70,29%</t>
-  </si>
-  <si>
-    <t>76,39%</t>
-  </si>
-  <si>
-    <t>71,72%</t>
-  </si>
-  <si>
-    <t>69,39%</t>
-  </si>
-  <si>
-    <t>73,66%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>37,97%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>34,34%</t>
-  </si>
-  <si>
-    <t>71,36%</t>
-  </si>
-  <si>
-    <t>67,31%</t>
-  </si>
-  <si>
-    <t>74,94%</t>
-  </si>
-  <si>
-    <t>66,0%</t>
-  </si>
-  <si>
-    <t>62,03%</t>
-  </si>
-  <si>
-    <t>69,64%</t>
-  </si>
-  <si>
-    <t>68,6%</t>
-  </si>
-  <si>
-    <t>65,66%</t>
-  </si>
-  <si>
-    <t>71,22%</t>
-  </si>
-  <si>
-    <t>35,67%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>39,39%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
-  </si>
-  <si>
-    <t>35,61%</t>
-  </si>
-  <si>
-    <t>33,28%</t>
-  </si>
-  <si>
-    <t>37,94%</t>
-  </si>
-  <si>
-    <t>64,33%</t>
-  </si>
-  <si>
-    <t>60,61%</t>
-  </si>
-  <si>
-    <t>67,34%</t>
-  </si>
-  <si>
-    <t>64,44%</t>
-  </si>
-  <si>
-    <t>61,15%</t>
-  </si>
-  <si>
-    <t>67,65%</t>
-  </si>
-  <si>
-    <t>64,39%</t>
-  </si>
-  <si>
-    <t>62,06%</t>
-  </si>
-  <si>
-    <t>66,72%</t>
-  </si>
-  <si>
-    <t>29,67%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>32,92%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>70,33%</t>
-  </si>
-  <si>
-    <t>68,55%</t>
-  </si>
-  <si>
-    <t>72,17%</t>
-  </si>
-  <si>
-    <t>68,77%</t>
-  </si>
-  <si>
-    <t>67,08%</t>
-  </si>
-  <si>
-    <t>70,6%</t>
-  </si>
-  <si>
-    <t>69,52%</t>
-  </si>
-  <si>
-    <t>68,27%</t>
-  </si>
-  <si>
-    <t>70,66%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue una limpieza de boca en 2015 (Tasa respuesta: 80,03%)</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>38,81%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>36,46%</t>
-  </si>
-  <si>
-    <t>70,82%</t>
-  </si>
-  <si>
-    <t>61,19%</t>
-  </si>
-  <si>
-    <t>79,01%</t>
-  </si>
-  <si>
-    <t>68,84%</t>
-  </si>
-  <si>
-    <t>59,71%</t>
-  </si>
-  <si>
-    <t>77,55%</t>
-  </si>
-  <si>
-    <t>63,54%</t>
-  </si>
-  <si>
-    <t>76,38%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>71,92%</t>
-  </si>
-  <si>
-    <t>66,89%</t>
-  </si>
-  <si>
-    <t>76,37%</t>
-  </si>
-  <si>
-    <t>70,0%</t>
-  </si>
-  <si>
-    <t>65,59%</t>
-  </si>
-  <si>
-    <t>74,11%</t>
-  </si>
-  <si>
-    <t>70,94%</t>
-  </si>
-  <si>
-    <t>67,61%</t>
-  </si>
-  <si>
-    <t>73,99%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
-  </si>
-  <si>
-    <t>40,62%</t>
-  </si>
-  <si>
-    <t>38,1%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>41,87%</t>
-  </si>
-  <si>
-    <t>37,61%</t>
-  </si>
-  <si>
-    <t>35,08%</t>
+    <t>61,47%</t>
+  </si>
+  <si>
+    <t>57,94%</t>
+  </si>
+  <si>
+    <t>64,66%</t>
+  </si>
+  <si>
+    <t>61,72%</t>
+  </si>
+  <si>
+    <t>59,32%</t>
+  </si>
+  <si>
+    <t>64,21%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>36,63%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>35,48%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>34,83%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>63,37%</t>
+  </si>
+  <si>
+    <t>67,19%</t>
+  </si>
+  <si>
+    <t>62,81%</t>
+  </si>
+  <si>
+    <t>64,52%</t>
+  </si>
+  <si>
+    <t>63,94%</t>
+  </si>
+  <si>
+    <t>62,63%</t>
+  </si>
+  <si>
+    <t>65,17%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue una limpieza de boca en 2023 (Tasa respuesta: 96,88%)</t>
+  </si>
+  <si>
+    <t>41,8%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>52,47%</t>
+  </si>
+  <si>
+    <t>42,19%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>49,12%</t>
+  </si>
+  <si>
+    <t>42,02%</t>
+  </si>
+  <si>
+    <t>36,32%</t>
+  </si>
+  <si>
+    <t>47,74%</t>
+  </si>
+  <si>
+    <t>58,2%</t>
+  </si>
+  <si>
+    <t>47,53%</t>
+  </si>
+  <si>
+    <t>67,82%</t>
+  </si>
+  <si>
+    <t>57,81%</t>
+  </si>
+  <si>
+    <t>50,88%</t>
+  </si>
+  <si>
+    <t>64,56%</t>
+  </si>
+  <si>
+    <t>57,98%</t>
+  </si>
+  <si>
+    <t>52,26%</t>
+  </si>
+  <si>
+    <t>63,68%</t>
+  </si>
+  <si>
+    <t>43,1%</t>
+  </si>
+  <si>
+    <t>38,78%</t>
+  </si>
+  <si>
+    <t>47,6%</t>
+  </si>
+  <si>
+    <t>50,45%</t>
+  </si>
+  <si>
+    <t>46,97%</t>
+  </si>
+  <si>
+    <t>54,03%</t>
+  </si>
+  <si>
+    <t>46,92%</t>
+  </si>
+  <si>
+    <t>43,93%</t>
+  </si>
+  <si>
+    <t>50,02%</t>
+  </si>
+  <si>
+    <t>56,9%</t>
+  </si>
+  <si>
+    <t>52,4%</t>
+  </si>
+  <si>
+    <t>61,22%</t>
+  </si>
+  <si>
+    <t>49,55%</t>
+  </si>
+  <si>
+    <t>45,97%</t>
+  </si>
+  <si>
+    <t>53,03%</t>
+  </si>
+  <si>
+    <t>53,08%</t>
+  </si>
+  <si>
+    <t>49,98%</t>
+  </si>
+  <si>
+    <t>56,07%</t>
+  </si>
+  <si>
+    <t>49,18%</t>
+  </si>
+  <si>
+    <t>40,8%</t>
+  </si>
+  <si>
+    <t>53,49%</t>
+  </si>
+  <si>
+    <t>52,61%</t>
+  </si>
+  <si>
+    <t>49,59%</t>
+  </si>
+  <si>
+    <t>55,66%</t>
+  </si>
+  <si>
+    <t>50,92%</t>
+  </si>
+  <si>
+    <t>46,69%</t>
+  </si>
+  <si>
+    <t>53,58%</t>
+  </si>
+  <si>
+    <t>50,82%</t>
+  </si>
+  <si>
+    <t>46,51%</t>
+  </si>
+  <si>
+    <t>59,2%</t>
+  </si>
+  <si>
+    <t>47,39%</t>
+  </si>
+  <si>
+    <t>44,34%</t>
+  </si>
+  <si>
+    <t>50,41%</t>
+  </si>
+  <si>
+    <t>49,08%</t>
+  </si>
+  <si>
+    <t>46,42%</t>
+  </si>
+  <si>
+    <t>53,31%</t>
+  </si>
+  <si>
+    <t>44,25%</t>
+  </si>
+  <si>
+    <t>40,03%</t>
+  </si>
+  <si>
+    <t>48,58%</t>
   </si>
   <si>
     <t>40,1%</t>
   </si>
   <si>
-    <t>62,91%</t>
-  </si>
-  <si>
-    <t>59,38%</t>
-  </si>
-  <si>
-    <t>61,9%</t>
-  </si>
-  <si>
-    <t>58,13%</t>
-  </si>
-  <si>
-    <t>65,01%</t>
-  </si>
-  <si>
-    <t>62,39%</t>
+    <t>68,03%</t>
+  </si>
+  <si>
+    <t>46,96%</t>
+  </si>
+  <si>
+    <t>42,18%</t>
+  </si>
+  <si>
+    <t>58,89%</t>
+  </si>
+  <si>
+    <t>55,75%</t>
+  </si>
+  <si>
+    <t>51,42%</t>
+  </si>
+  <si>
+    <t>59,97%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
   </si>
   <si>
     <t>59,9%</t>
   </si>
   <si>
-    <t>64,92%</t>
-  </si>
-  <si>
-    <t>33,37%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>37,35%</t>
-  </si>
-  <si>
-    <t>40,33%</t>
-  </si>
-  <si>
-    <t>36,01%</t>
-  </si>
-  <si>
-    <t>44,38%</t>
-  </si>
-  <si>
-    <t>36,94%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>66,63%</t>
-  </si>
-  <si>
-    <t>62,65%</t>
-  </si>
-  <si>
-    <t>71,33%</t>
-  </si>
-  <si>
-    <t>59,67%</t>
-  </si>
-  <si>
-    <t>55,62%</t>
-  </si>
-  <si>
-    <t>63,99%</t>
-  </si>
-  <si>
-    <t>63,06%</t>
-  </si>
-  <si>
-    <t>60,22%</t>
-  </si>
-  <si>
-    <t>65,82%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>41,59%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>35,21%</t>
-  </si>
-  <si>
-    <t>41,75%</t>
-  </si>
-  <si>
-    <t>38,28%</t>
-  </si>
-  <si>
-    <t>40,75%</t>
-  </si>
-  <si>
-    <t>62,01%</t>
-  </si>
-  <si>
-    <t>58,41%</t>
-  </si>
-  <si>
-    <t>65,51%</t>
-  </si>
-  <si>
-    <t>61,47%</t>
-  </si>
-  <si>
-    <t>58,25%</t>
-  </si>
-  <si>
-    <t>64,79%</t>
-  </si>
-  <si>
-    <t>61,72%</t>
-  </si>
-  <si>
-    <t>59,25%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>36,78%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>39,0%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>34,79%</t>
-  </si>
-  <si>
-    <t>37,42%</t>
-  </si>
-  <si>
-    <t>65,15%</t>
-  </si>
-  <si>
-    <t>63,22%</t>
-  </si>
-  <si>
-    <t>62,81%</t>
-  </si>
-  <si>
-    <t>61,0%</t>
-  </si>
-  <si>
-    <t>64,73%</t>
-  </si>
-  <si>
-    <t>63,94%</t>
-  </si>
-  <si>
-    <t>62,58%</t>
-  </si>
-  <si>
-    <t>65,21%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue una limpieza de boca en 2023 (Tasa respuesta: 96,88%)</t>
-  </si>
-  <si>
-    <t>41,8%</t>
-  </si>
-  <si>
-    <t>52,42%</t>
-  </si>
-  <si>
-    <t>42,19%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>49,15%</t>
-  </si>
-  <si>
-    <t>42,02%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>48,38%</t>
-  </si>
-  <si>
-    <t>58,2%</t>
-  </si>
-  <si>
-    <t>47,58%</t>
-  </si>
-  <si>
-    <t>57,81%</t>
-  </si>
-  <si>
-    <t>50,85%</t>
-  </si>
-  <si>
-    <t>64,84%</t>
-  </si>
-  <si>
-    <t>57,98%</t>
-  </si>
-  <si>
-    <t>51,62%</t>
-  </si>
-  <si>
-    <t>63,51%</t>
-  </si>
-  <si>
-    <t>43,1%</t>
-  </si>
-  <si>
-    <t>38,86%</t>
-  </si>
-  <si>
-    <t>47,87%</t>
-  </si>
-  <si>
-    <t>50,45%</t>
-  </si>
-  <si>
-    <t>46,7%</t>
-  </si>
-  <si>
-    <t>53,85%</t>
-  </si>
-  <si>
-    <t>46,92%</t>
-  </si>
-  <si>
-    <t>43,87%</t>
-  </si>
-  <si>
-    <t>49,54%</t>
-  </si>
-  <si>
-    <t>56,9%</t>
-  </si>
-  <si>
-    <t>52,13%</t>
-  </si>
-  <si>
-    <t>61,14%</t>
-  </si>
-  <si>
-    <t>49,55%</t>
-  </si>
-  <si>
-    <t>46,15%</t>
-  </si>
-  <si>
-    <t>53,3%</t>
-  </si>
-  <si>
-    <t>53,08%</t>
-  </si>
-  <si>
-    <t>50,46%</t>
-  </si>
-  <si>
-    <t>56,13%</t>
-  </si>
-  <si>
-    <t>49,18%</t>
-  </si>
-  <si>
-    <t>40,64%</t>
-  </si>
-  <si>
-    <t>53,49%</t>
-  </si>
-  <si>
-    <t>52,61%</t>
-  </si>
-  <si>
-    <t>49,49%</t>
-  </si>
-  <si>
-    <t>55,21%</t>
-  </si>
-  <si>
-    <t>50,92%</t>
-  </si>
-  <si>
-    <t>46,33%</t>
-  </si>
-  <si>
-    <t>50,82%</t>
-  </si>
-  <si>
-    <t>46,51%</t>
-  </si>
-  <si>
-    <t>59,36%</t>
-  </si>
-  <si>
-    <t>47,39%</t>
-  </si>
-  <si>
-    <t>44,79%</t>
-  </si>
-  <si>
-    <t>50,51%</t>
-  </si>
-  <si>
-    <t>49,08%</t>
-  </si>
-  <si>
-    <t>53,67%</t>
-  </si>
-  <si>
-    <t>44,25%</t>
-  </si>
-  <si>
-    <t>40,06%</t>
+    <t>53,04%</t>
+  </si>
+  <si>
+    <t>41,11%</t>
+  </si>
+  <si>
+    <t>57,82%</t>
+  </si>
+  <si>
+    <t>48,94%</t>
+  </si>
+  <si>
+    <t>45,36%</t>
+  </si>
+  <si>
+    <t>52,48%</t>
+  </si>
+  <si>
+    <t>49,09%</t>
+  </si>
+  <si>
+    <t>45,92%</t>
+  </si>
+  <si>
+    <t>52,06%</t>
+  </si>
+  <si>
+    <t>49,02%</t>
+  </si>
+  <si>
+    <t>46,66%</t>
+  </si>
+  <si>
+    <t>51,23%</t>
+  </si>
+  <si>
+    <t>51,06%</t>
+  </si>
+  <si>
+    <t>47,52%</t>
+  </si>
+  <si>
+    <t>54,64%</t>
+  </si>
+  <si>
+    <t>50,91%</t>
+  </si>
+  <si>
+    <t>47,94%</t>
+  </si>
+  <si>
+    <t>54,08%</t>
+  </si>
+  <si>
+    <t>50,98%</t>
+  </si>
+  <si>
+    <t>48,77%</t>
+  </si>
+  <si>
+    <t>53,34%</t>
+  </si>
+  <si>
+    <t>46,84%</t>
+  </si>
+  <si>
+    <t>43,91%</t>
+  </si>
+  <si>
+    <t>48,85%</t>
+  </si>
+  <si>
+    <t>50,07%</t>
+  </si>
+  <si>
+    <t>47,86%</t>
+  </si>
+  <si>
+    <t>55,55%</t>
   </si>
   <si>
     <t>48,56%</t>
   </si>
   <si>
-    <t>40,71%</t>
-  </si>
-  <si>
-    <t>67,2%</t>
-  </si>
-  <si>
-    <t>46,96%</t>
-  </si>
-  <si>
-    <t>41,94%</t>
-  </si>
-  <si>
-    <t>61,02%</t>
-  </si>
-  <si>
-    <t>55,75%</t>
+    <t>46,87%</t>
+  </si>
+  <si>
+    <t>51,31%</t>
+  </si>
+  <si>
+    <t>53,16%</t>
+  </si>
+  <si>
+    <t>51,15%</t>
+  </si>
+  <si>
+    <t>56,09%</t>
+  </si>
+  <si>
+    <t>49,93%</t>
+  </si>
+  <si>
+    <t>44,45%</t>
+  </si>
+  <si>
+    <t>52,14%</t>
   </si>
   <si>
     <t>51,44%</t>
   </si>
   <si>
-    <t>59,94%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>59,29%</t>
-  </si>
-  <si>
-    <t>53,04%</t>
-  </si>
-  <si>
-    <t>38,98%</t>
-  </si>
-  <si>
-    <t>58,06%</t>
-  </si>
-  <si>
-    <t>48,94%</t>
-  </si>
-  <si>
-    <t>45,43%</t>
-  </si>
-  <si>
-    <t>52,56%</t>
-  </si>
-  <si>
-    <t>49,09%</t>
-  </si>
-  <si>
-    <t>45,73%</t>
-  </si>
-  <si>
-    <t>52,09%</t>
-  </si>
-  <si>
-    <t>49,02%</t>
-  </si>
-  <si>
-    <t>46,77%</t>
-  </si>
-  <si>
-    <t>51,38%</t>
-  </si>
-  <si>
-    <t>51,06%</t>
-  </si>
-  <si>
-    <t>47,44%</t>
-  </si>
-  <si>
-    <t>54,57%</t>
-  </si>
-  <si>
-    <t>50,91%</t>
-  </si>
-  <si>
-    <t>47,91%</t>
-  </si>
-  <si>
-    <t>54,27%</t>
-  </si>
-  <si>
-    <t>50,98%</t>
-  </si>
-  <si>
-    <t>48,62%</t>
-  </si>
-  <si>
-    <t>53,23%</t>
-  </si>
-  <si>
-    <t>46,84%</t>
-  </si>
-  <si>
-    <t>49,01%</t>
-  </si>
-  <si>
-    <t>50,07%</t>
-  </si>
-  <si>
-    <t>47,89%</t>
-  </si>
-  <si>
-    <t>55,32%</t>
-  </si>
-  <si>
-    <t>46,85%</t>
-  </si>
-  <si>
-    <t>51,51%</t>
-  </si>
-  <si>
-    <t>53,16%</t>
-  </si>
-  <si>
-    <t>50,99%</t>
-  </si>
-  <si>
-    <t>49,93%</t>
-  </si>
-  <si>
-    <t>44,68%</t>
-  </si>
-  <si>
-    <t>52,11%</t>
-  </si>
-  <si>
-    <t>48,49%</t>
-  </si>
-  <si>
-    <t>53,15%</t>
+    <t>48,69%</t>
+  </si>
+  <si>
+    <t>53,13%</t>
   </si>
 </sst>
 </file>
@@ -1743,7 +1761,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9351A01C-7EC2-4825-9A4D-A529146D2B8C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2430AC87-6709-4D8F-B7AB-10C898428AFB}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2055,10 +2073,10 @@
         <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2073,13 +2091,13 @@
         <v>312375</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>346</v>
@@ -2088,13 +2106,13 @@
         <v>348496</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>662</v>
@@ -2103,13 +2121,13 @@
         <v>660870</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2165,7 +2183,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2177,13 +2195,13 @@
         <v>194345</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>214</v>
@@ -2192,13 +2210,13 @@
         <v>228974</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>387</v>
@@ -2207,13 +2225,13 @@
         <v>423319</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2228,13 +2246,13 @@
         <v>527783</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>542</v>
@@ -2243,13 +2261,13 @@
         <v>575252</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>1037</v>
@@ -2258,13 +2276,13 @@
         <v>1103035</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2320,7 +2338,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2332,13 +2350,13 @@
         <v>164255</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>198</v>
@@ -2347,13 +2365,13 @@
         <v>195609</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>352</v>
@@ -2362,13 +2380,13 @@
         <v>359864</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2383,13 +2401,13 @@
         <v>380834</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>397</v>
@@ -2398,13 +2416,13 @@
         <v>388019</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>758</v>
@@ -2413,13 +2431,13 @@
         <v>768853</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2475,7 +2493,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2487,13 +2505,13 @@
         <v>240408</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>241</v>
@@ -2502,13 +2520,13 @@
         <v>252000</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>495</v>
@@ -2517,13 +2535,13 @@
         <v>492408</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2538,13 +2556,13 @@
         <v>469280</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>539</v>
@@ -2553,13 +2571,13 @@
         <v>561068</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>1039</v>
@@ -2568,13 +2586,13 @@
         <v>1030347</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2642,13 +2660,13 @@
         <v>702443</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>774</v>
@@ -2657,13 +2675,13 @@
         <v>796886</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>1453</v>
@@ -2672,13 +2690,13 @@
         <v>1499329</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2693,13 +2711,13 @@
         <v>1752299</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>1902</v>
@@ -2708,13 +2726,13 @@
         <v>1941123</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>3630</v>
@@ -2723,13 +2741,13 @@
         <v>3693421</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2785,7 +2803,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2806,7 +2824,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20B30E5D-E182-421D-94B3-4EB2EEABB046}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54322CFB-4266-4ED2-BA15-7C8A3EE63A8C}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2823,7 +2841,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2930,13 +2948,13 @@
         <v>24473</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H4" s="7">
         <v>25</v>
@@ -2945,13 +2963,13 @@
         <v>27519</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M4" s="7">
         <v>50</v>
@@ -2960,13 +2978,13 @@
         <v>51992</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2981,13 +2999,13 @@
         <v>76281</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H5" s="7">
         <v>57</v>
@@ -2996,13 +3014,13 @@
         <v>66299</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M5" s="7">
         <v>137</v>
@@ -3011,13 +3029,13 @@
         <v>142580</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3085,13 +3103,13 @@
         <v>108864</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>37</v>
+        <v>147</v>
       </c>
       <c r="H7" s="7">
         <v>143</v>
@@ -3100,13 +3118,13 @@
         <v>155016</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M7" s="7">
         <v>249</v>
@@ -3115,13 +3133,13 @@
         <v>263880</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3136,13 +3154,13 @@
         <v>395285</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>44</v>
+        <v>155</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="H8" s="7">
         <v>368</v>
@@ -3151,13 +3169,13 @@
         <v>387906</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="M8" s="7">
         <v>737</v>
@@ -3166,13 +3184,13 @@
         <v>783191</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3228,7 +3246,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3240,13 +3258,13 @@
         <v>261371</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="H10" s="7">
         <v>218</v>
@@ -3255,13 +3273,13 @@
         <v>238073</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="M10" s="7">
         <v>455</v>
@@ -3270,13 +3288,13 @@
         <v>499444</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>167</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3291,13 +3309,13 @@
         <v>604615</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="H11" s="7">
         <v>604</v>
@@ -3306,13 +3324,13 @@
         <v>661791</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="M11" s="7">
         <v>1165</v>
@@ -3321,13 +3339,13 @@
         <v>1266406</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>175</v>
+        <v>117</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3383,7 +3401,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3395,13 +3413,13 @@
         <v>182132</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H13" s="7">
         <v>207</v>
@@ -3410,13 +3428,13 @@
         <v>230692</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M13" s="7">
         <v>376</v>
@@ -3425,13 +3443,13 @@
         <v>412824</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3446,13 +3464,13 @@
         <v>453901</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H14" s="7">
         <v>408</v>
@@ -3461,13 +3479,13 @@
         <v>447805</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="M14" s="7">
         <v>821</v>
@@ -3476,13 +3494,13 @@
         <v>901706</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3538,7 +3556,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3550,13 +3568,13 @@
         <v>287022</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="H16" s="7">
         <v>320</v>
@@ -3565,13 +3583,13 @@
         <v>331835</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M16" s="7">
         <v>597</v>
@@ -3580,13 +3598,13 @@
         <v>618857</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3601,13 +3619,13 @@
         <v>517662</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="H17" s="7">
         <v>567</v>
@@ -3616,13 +3634,13 @@
         <v>601366</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M17" s="7">
         <v>1063</v>
@@ -3631,13 +3649,13 @@
         <v>1119028</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3705,13 +3723,13 @@
         <v>863862</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>215</v>
+        <v>19</v>
       </c>
       <c r="H19" s="7">
         <v>913</v>
@@ -3720,13 +3738,13 @@
         <v>983135</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M19" s="7">
         <v>1727</v>
@@ -3735,13 +3753,13 @@
         <v>1846997</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3756,10 +3774,10 @@
         <v>2047744</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>223</v>
+        <v>28</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>224</v>
@@ -3848,7 +3866,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -3869,7 +3887,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B40A064D-7F37-498A-9421-E72687413B40}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3E4656F-938F-48F8-B4B9-C2E6066D5475}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4023,7 +4041,7 @@
         <v>60288</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>238</v>
@@ -4074,7 +4092,7 @@
         <v>139488</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>246</v>
@@ -4169,7 +4187,7 @@
         <v>252</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>253</v>
+        <v>135</v>
       </c>
       <c r="M7" s="7">
         <v>248</v>
@@ -4178,13 +4196,13 @@
         <v>252693</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4199,13 +4217,13 @@
         <v>306556</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="H8" s="7">
         <v>309</v>
@@ -4214,13 +4232,13 @@
         <v>310331</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="M8" s="7">
         <v>606</v>
@@ -4229,13 +4247,13 @@
         <v>616887</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4291,7 +4309,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4303,13 +4321,13 @@
         <v>302806</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="H10" s="7">
         <v>315</v>
@@ -4318,13 +4336,13 @@
         <v>330077</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="M10" s="7">
         <v>590</v>
@@ -4333,13 +4351,13 @@
         <v>632883</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4354,13 +4372,13 @@
         <v>513540</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="H11" s="7">
         <v>503</v>
@@ -4446,7 +4464,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4488,13 +4506,13 @@
         <v>417471</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4509,13 +4527,13 @@
         <v>366724</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="H14" s="7">
         <v>328</v>
@@ -4524,13 +4542,13 @@
         <v>345902</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>296</v>
       </c>
       <c r="M14" s="7">
         <v>658</v>
@@ -4539,13 +4557,13 @@
         <v>712627</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4601,7 +4619,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4613,13 +4631,13 @@
         <v>293529</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>302</v>
       </c>
       <c r="H16" s="7">
         <v>318</v>
@@ -4628,13 +4646,13 @@
         <v>337860</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>305</v>
       </c>
       <c r="M16" s="7">
         <v>613</v>
@@ -4643,13 +4661,13 @@
         <v>631389</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4664,13 +4682,13 @@
         <v>479106</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>310</v>
       </c>
       <c r="H17" s="7">
         <v>495</v>
@@ -4679,13 +4697,13 @@
         <v>538981</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>313</v>
       </c>
       <c r="M17" s="7">
         <v>968</v>
@@ -4694,13 +4712,13 @@
         <v>1018087</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4768,10 +4786,10 @@
         <v>928451</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>317</v>
@@ -4789,7 +4807,7 @@
         <v>319</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>320</v>
+        <v>199</v>
       </c>
       <c r="M19" s="7">
         <v>1906</v>
@@ -4798,13 +4816,13 @@
         <v>1994724</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4816,16 +4834,16 @@
         <v>1646</v>
       </c>
       <c r="D20" s="7">
-        <v>1735883</v>
+        <v>1735882</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H20" s="7">
         <v>1705</v>
@@ -4834,28 +4852,28 @@
         <v>1801042</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>328</v>
       </c>
       <c r="M20" s="7">
         <v>3351</v>
       </c>
       <c r="N20" s="7">
-        <v>3536925</v>
+        <v>3536924</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4867,7 +4885,7 @@
         <v>2530</v>
       </c>
       <c r="D21" s="7">
-        <v>2664334</v>
+        <v>2664333</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -4897,7 +4915,7 @@
         <v>5257</v>
       </c>
       <c r="N21" s="7">
-        <v>5531649</v>
+        <v>5531648</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -4911,7 +4929,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -4932,7 +4950,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E18272DF-B891-47C6-83DD-72DDCD3488B9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{234EDBDB-DAD9-40AD-9ECB-43D55DDA52D4}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4949,7 +4967,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5056,13 +5074,13 @@
         <v>41997</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>334</v>
       </c>
       <c r="H4" s="7">
         <v>102</v>
@@ -5071,13 +5089,13 @@
         <v>54124</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>336</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>337</v>
       </c>
       <c r="M4" s="7">
         <v>146</v>
@@ -5086,13 +5104,13 @@
         <v>96122</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5107,13 +5125,13 @@
         <v>58477</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="H5" s="7">
         <v>136</v>
@@ -5354,7 +5372,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5402,7 +5420,7 @@
         <v>374</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5417,13 +5435,13 @@
         <v>516046</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H11" s="7">
         <v>717</v>
@@ -5432,13 +5450,13 @@
         <v>493833</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M11" s="7">
         <v>1209</v>
@@ -5447,13 +5465,13 @@
         <v>1009879</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>353</v>
+        <v>383</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5509,7 +5527,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5521,13 +5539,13 @@
         <v>313517</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="H13" s="7">
         <v>445</v>
@@ -5539,10 +5557,10 @@
         <v>367</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="M13" s="7">
         <v>731</v>
@@ -5551,13 +5569,13 @@
         <v>737581</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5572,13 +5590,13 @@
         <v>395024</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="H14" s="7">
         <v>579</v>
@@ -5587,13 +5605,13 @@
         <v>438124</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="M14" s="7">
         <v>948</v>
@@ -5602,13 +5620,13 @@
         <v>833149</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5664,7 +5682,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5676,13 +5694,13 @@
         <v>453324</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="H16" s="7">
         <v>735</v>
@@ -5691,13 +5709,13 @@
         <v>547207</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="M16" s="7">
         <v>1200</v>
@@ -5706,13 +5724,13 @@
         <v>1000532</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5727,13 +5745,13 @@
         <v>473054</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="H17" s="7">
         <v>775</v>
@@ -5742,13 +5760,13 @@
         <v>567569</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="M17" s="7">
         <v>1276</v>
@@ -5757,13 +5775,13 @@
         <v>1040622</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5828,16 +5846,16 @@
         <v>1473</v>
       </c>
       <c r="D19" s="7">
-        <v>1534937</v>
+        <v>1534936</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>383</v>
+        <v>420</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="H19" s="7">
         <v>2518</v>
@@ -5846,13 +5864,13 @@
         <v>1860948</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="M19" s="7">
         <v>3991</v>
@@ -5861,13 +5879,13 @@
         <v>3395885</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>385</v>
+        <v>425</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5882,13 +5900,13 @@
         <v>1741975</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>391</v>
+        <v>430</v>
       </c>
       <c r="H20" s="7">
         <v>2699</v>
@@ -5897,13 +5915,13 @@
         <v>1855900</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="M20" s="7">
         <v>4479</v>
@@ -5912,13 +5930,13 @@
         <v>3597875</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>392</v>
+        <v>434</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5930,7 +5948,7 @@
         <v>3253</v>
       </c>
       <c r="D21" s="7">
-        <v>3276912</v>
+        <v>3276911</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -5974,7 +5992,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P19C02-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P19C02-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{14CD3BEE-04C3-44B9-9535-6EF1F65045D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F419F8F1-226D-4C9C-9882-7A8FDBB9905A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{98CBF8C5-A3BC-45D7-83BC-BF77BD360C71}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E5593809-6AC2-4B8D-A7F7-8F974286D5DC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="441">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue una limpieza de boca en 2007 (Tasa respuesta: 78,07%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -77,28 +77,28 @@
     <t>20,24%</t>
   </si>
   <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
   </si>
   <si>
     <t>27,93%</t>
   </si>
   <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>36,42%</t>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>37,2%</t>
   </si>
   <si>
     <t>24,46%</t>
   </si>
   <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,928 +107,940 @@
     <t>79,76%</t>
   </si>
   <si>
-    <t>69,3%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
+    <t>68,48%</t>
+  </si>
+  <si>
+    <t>88,21%</t>
   </si>
   <si>
     <t>72,07%</t>
   </si>
   <si>
-    <t>63,58%</t>
-  </si>
-  <si>
-    <t>80,33%</t>
+    <t>62,8%</t>
+  </si>
+  <si>
+    <t>80,22%</t>
   </si>
   <si>
     <t>75,54%</t>
   </si>
   <si>
-    <t>68,56%</t>
-  </si>
-  <si>
-    <t>81,14%</t>
+    <t>69,05%</t>
+  </si>
+  <si>
+    <t>82,08%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>21,92%</t>
   </si>
   <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
   </si>
   <si>
     <t>21,22%</t>
   </si>
   <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
   </si>
   <si>
     <t>21,55%</t>
   </si>
   <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
   </si>
   <si>
     <t>78,08%</t>
   </si>
   <si>
-    <t>73,69%</t>
-  </si>
-  <si>
-    <t>82,04%</t>
+    <t>73,65%</t>
+  </si>
+  <si>
+    <t>82,23%</t>
   </si>
   <si>
     <t>78,78%</t>
   </si>
   <si>
-    <t>74,65%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
+    <t>74,99%</t>
+  </si>
+  <si>
+    <t>82,3%</t>
   </si>
   <si>
     <t>78,45%</t>
   </si>
   <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>80,99%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>75,68%</t>
+  </si>
+  <si>
+    <t>81,25%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>26,91%</t>
   </si>
   <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
   </si>
   <si>
     <t>28,47%</t>
   </si>
   <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
   </si>
   <si>
     <t>27,73%</t>
   </si>
   <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
   </si>
   <si>
     <t>73,09%</t>
   </si>
   <si>
-    <t>68,96%</t>
-  </si>
-  <si>
-    <t>76,2%</t>
+    <t>69,73%</t>
+  </si>
+  <si>
+    <t>76,9%</t>
   </si>
   <si>
     <t>71,53%</t>
   </si>
   <si>
-    <t>68,31%</t>
-  </si>
-  <si>
-    <t>74,75%</t>
+    <t>67,98%</t>
+  </si>
+  <si>
+    <t>74,7%</t>
   </si>
   <si>
     <t>72,27%</t>
   </si>
   <si>
-    <t>69,76%</t>
-  </si>
-  <si>
-    <t>74,6%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>69,66%</t>
+  </si>
+  <si>
+    <t>74,57%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>30,13%</t>
   </si>
   <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
   </si>
   <si>
     <t>33,52%</t>
   </si>
   <si>
-    <t>29,5%</t>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>37,49%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>69,87%</t>
+  </si>
+  <si>
+    <t>64,91%</t>
+  </si>
+  <si>
+    <t>73,43%</t>
+  </si>
+  <si>
+    <t>66,48%</t>
+  </si>
+  <si>
+    <t>62,51%</t>
+  </si>
+  <si>
+    <t>70,57%</t>
+  </si>
+  <si>
+    <t>68,12%</t>
+  </si>
+  <si>
+    <t>65,15%</t>
+  </si>
+  <si>
+    <t>70,85%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>66,12%</t>
+  </si>
+  <si>
+    <t>62,69%</t>
+  </si>
+  <si>
+    <t>69,36%</t>
+  </si>
+  <si>
+    <t>69,01%</t>
+  </si>
+  <si>
+    <t>65,73%</t>
+  </si>
+  <si>
+    <t>72,24%</t>
+  </si>
+  <si>
+    <t>67,66%</t>
+  </si>
+  <si>
+    <t>65,47%</t>
+  </si>
+  <si>
+    <t>70,08%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>71,38%</t>
+  </si>
+  <si>
+    <t>69,56%</t>
+  </si>
+  <si>
+    <t>73,22%</t>
+  </si>
+  <si>
+    <t>70,9%</t>
+  </si>
+  <si>
+    <t>69,25%</t>
+  </si>
+  <si>
+    <t>72,7%</t>
+  </si>
+  <si>
+    <t>71,13%</t>
+  </si>
+  <si>
+    <t>69,84%</t>
+  </si>
+  <si>
+    <t>72,31%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue una limpieza de boca en 2012 (Tasa respuesta: 86,83%)</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>34,16%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>40,08%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>75,71%</t>
+  </si>
+  <si>
+    <t>65,84%</t>
+  </si>
+  <si>
+    <t>83,3%</t>
+  </si>
+  <si>
+    <t>70,67%</t>
+  </si>
+  <si>
+    <t>59,92%</t>
+  </si>
+  <si>
+    <t>79,79%</t>
+  </si>
+  <si>
+    <t>73,28%</t>
+  </si>
+  <si>
+    <t>66,69%</t>
+  </si>
+  <si>
+    <t>79,29%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>32,86%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>78,41%</t>
+  </si>
+  <si>
+    <t>74,77%</t>
+  </si>
+  <si>
+    <t>81,93%</t>
+  </si>
+  <si>
+    <t>71,45%</t>
+  </si>
+  <si>
+    <t>67,14%</t>
+  </si>
+  <si>
+    <t>74,8%</t>
+  </si>
+  <si>
+    <t>72,29%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>69,82%</t>
+  </si>
+  <si>
+    <t>66,57%</t>
+  </si>
+  <si>
+    <t>73,31%</t>
+  </si>
+  <si>
+    <t>73,54%</t>
+  </si>
+  <si>
+    <t>70,47%</t>
+  </si>
+  <si>
+    <t>76,64%</t>
+  </si>
+  <si>
+    <t>71,72%</t>
+  </si>
+  <si>
+    <t>69,4%</t>
+  </si>
+  <si>
+    <t>73,86%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>71,36%</t>
+  </si>
+  <si>
+    <t>67,68%</t>
+  </si>
+  <si>
+    <t>75,16%</t>
+  </si>
+  <si>
+    <t>66,0%</t>
+  </si>
+  <si>
+    <t>62,01%</t>
+  </si>
+  <si>
+    <t>69,68%</t>
+  </si>
+  <si>
+    <t>68,6%</t>
+  </si>
+  <si>
+    <t>66,07%</t>
+  </si>
+  <si>
+    <t>71,47%</t>
+  </si>
+  <si>
+    <t>35,67%</t>
+  </si>
+  <si>
+    <t>32,19%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>35,56%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>38,94%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>38,0%</t>
+  </si>
+  <si>
+    <t>64,33%</t>
+  </si>
+  <si>
+    <t>60,69%</t>
+  </si>
+  <si>
+    <t>67,81%</t>
+  </si>
+  <si>
+    <t>64,44%</t>
+  </si>
+  <si>
+    <t>61,06%</t>
+  </si>
+  <si>
+    <t>67,45%</t>
+  </si>
+  <si>
+    <t>64,39%</t>
+  </si>
+  <si>
+    <t>62,0%</t>
+  </si>
+  <si>
+    <t>66,7%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>70,33%</t>
+  </si>
+  <si>
+    <t>68,57%</t>
+  </si>
+  <si>
+    <t>72,08%</t>
+  </si>
+  <si>
+    <t>68,77%</t>
+  </si>
+  <si>
+    <t>66,99%</t>
+  </si>
+  <si>
+    <t>70,29%</t>
+  </si>
+  <si>
+    <t>69,52%</t>
+  </si>
+  <si>
+    <t>68,29%</t>
+  </si>
+  <si>
+    <t>70,65%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue una limpieza de boca en 2016 (Tasa respuesta: 80,03%)</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>38,38%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>40,81%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>36,59%</t>
+  </si>
+  <si>
+    <t>70,82%</t>
+  </si>
+  <si>
+    <t>61,62%</t>
+  </si>
+  <si>
+    <t>79,54%</t>
+  </si>
+  <si>
+    <t>68,84%</t>
+  </si>
+  <si>
+    <t>59,19%</t>
+  </si>
+  <si>
+    <t>77,22%</t>
+  </si>
+  <si>
+    <t>63,41%</t>
+  </si>
+  <si>
+    <t>76,22%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>71,92%</t>
+  </si>
+  <si>
+    <t>67,92%</t>
+  </si>
+  <si>
+    <t>76,62%</t>
+  </si>
+  <si>
+    <t>70,0%</t>
+  </si>
+  <si>
+    <t>65,56%</t>
+  </si>
+  <si>
+    <t>74,25%</t>
+  </si>
+  <si>
+    <t>70,94%</t>
+  </si>
+  <si>
+    <t>67,54%</t>
+  </si>
+  <si>
+    <t>74,02%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>40,68%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>34,8%</t>
+  </si>
+  <si>
+    <t>41,47%</t>
+  </si>
+  <si>
+    <t>37,61%</t>
+  </si>
+  <si>
+    <t>35,18%</t>
+  </si>
+  <si>
+    <t>40,06%</t>
+  </si>
+  <si>
+    <t>62,91%</t>
+  </si>
+  <si>
+    <t>59,32%</t>
+  </si>
+  <si>
+    <t>66,32%</t>
+  </si>
+  <si>
+    <t>61,9%</t>
+  </si>
+  <si>
+    <t>58,53%</t>
+  </si>
+  <si>
+    <t>65,2%</t>
+  </si>
+  <si>
+    <t>62,39%</t>
+  </si>
+  <si>
+    <t>59,94%</t>
+  </si>
+  <si>
+    <t>64,82%</t>
+  </si>
+  <si>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
   </si>
   <si>
     <t>37,4%</t>
   </si>
   <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>69,87%</t>
-  </si>
-  <si>
-    <t>65,68%</t>
-  </si>
-  <si>
-    <t>73,5%</t>
-  </si>
-  <si>
-    <t>66,48%</t>
+    <t>40,33%</t>
+  </si>
+  <si>
+    <t>36,33%</t>
+  </si>
+  <si>
+    <t>44,39%</t>
+  </si>
+  <si>
+    <t>36,94%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>40,15%</t>
+  </si>
+  <si>
+    <t>66,63%</t>
   </si>
   <si>
     <t>62,6%</t>
   </si>
   <si>
-    <t>70,5%</t>
-  </si>
-  <si>
-    <t>68,12%</t>
-  </si>
-  <si>
-    <t>65,29%</t>
-  </si>
-  <si>
-    <t>70,86%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>66,12%</t>
-  </si>
-  <si>
-    <t>62,77%</t>
-  </si>
-  <si>
-    <t>69,53%</t>
-  </si>
-  <si>
-    <t>69,01%</t>
-  </si>
-  <si>
-    <t>65,79%</t>
-  </si>
-  <si>
-    <t>72,29%</t>
-  </si>
-  <si>
-    <t>67,66%</t>
-  </si>
-  <si>
-    <t>65,15%</t>
-  </si>
-  <si>
-    <t>70,09%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>71,38%</t>
-  </si>
-  <si>
-    <t>69,39%</t>
-  </si>
-  <si>
-    <t>73,16%</t>
-  </si>
-  <si>
-    <t>70,9%</t>
-  </si>
-  <si>
-    <t>69,22%</t>
-  </si>
-  <si>
-    <t>72,69%</t>
-  </si>
-  <si>
-    <t>71,13%</t>
-  </si>
-  <si>
-    <t>69,81%</t>
-  </si>
-  <si>
-    <t>72,4%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue una limpieza de boca en 2012 (Tasa respuesta: 86,83%)</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>34,24%</t>
-  </si>
-  <si>
-    <t>75,71%</t>
-  </si>
-  <si>
-    <t>67,51%</t>
-  </si>
-  <si>
-    <t>83,77%</t>
-  </si>
-  <si>
-    <t>70,67%</t>
-  </si>
-  <si>
-    <t>60,52%</t>
-  </si>
-  <si>
-    <t>80,31%</t>
-  </si>
-  <si>
-    <t>73,28%</t>
-  </si>
-  <si>
-    <t>65,76%</t>
-  </si>
-  <si>
-    <t>79,26%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>78,41%</t>
-  </si>
-  <si>
-    <t>74,64%</t>
-  </si>
-  <si>
-    <t>82,03%</t>
-  </si>
-  <si>
-    <t>71,45%</t>
-  </si>
-  <si>
-    <t>67,37%</t>
-  </si>
-  <si>
-    <t>75,4%</t>
-  </si>
-  <si>
-    <t>74,8%</t>
-  </si>
-  <si>
-    <t>71,86%</t>
-  </si>
-  <si>
-    <t>77,45%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>69,82%</t>
-  </si>
-  <si>
-    <t>66,47%</t>
-  </si>
-  <si>
-    <t>73,17%</t>
-  </si>
-  <si>
-    <t>73,54%</t>
-  </si>
-  <si>
-    <t>70,53%</t>
-  </si>
-  <si>
-    <t>76,51%</t>
-  </si>
-  <si>
-    <t>71,72%</t>
-  </si>
-  <si>
-    <t>73,92%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>37,73%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>71,36%</t>
-  </si>
-  <si>
-    <t>67,23%</t>
-  </si>
-  <si>
-    <t>74,93%</t>
-  </si>
-  <si>
-    <t>66,0%</t>
-  </si>
-  <si>
-    <t>62,27%</t>
-  </si>
-  <si>
-    <t>69,65%</t>
-  </si>
-  <si>
-    <t>68,6%</t>
-  </si>
-  <si>
-    <t>65,87%</t>
-  </si>
-  <si>
-    <t>71,29%</t>
-  </si>
-  <si>
-    <t>35,67%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>39,24%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>38,83%</t>
-  </si>
-  <si>
-    <t>35,61%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>37,88%</t>
-  </si>
-  <si>
-    <t>64,33%</t>
-  </si>
-  <si>
-    <t>60,76%</t>
-  </si>
-  <si>
-    <t>67,71%</t>
-  </si>
-  <si>
-    <t>64,44%</t>
-  </si>
-  <si>
-    <t>61,17%</t>
-  </si>
-  <si>
-    <t>67,5%</t>
-  </si>
-  <si>
-    <t>64,39%</t>
-  </si>
-  <si>
-    <t>62,12%</t>
-  </si>
-  <si>
-    <t>66,77%</t>
-  </si>
-  <si>
-    <t>29,67%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>70,33%</t>
-  </si>
-  <si>
-    <t>72,12%</t>
-  </si>
-  <si>
-    <t>68,77%</t>
-  </si>
-  <si>
-    <t>67,13%</t>
-  </si>
-  <si>
-    <t>70,38%</t>
-  </si>
-  <si>
-    <t>69,52%</t>
-  </si>
-  <si>
-    <t>68,36%</t>
-  </si>
-  <si>
-    <t>70,83%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue una limpieza de boca en 2015 (Tasa respuesta: 80,03%)</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>39,81%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>42,77%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>36,94%</t>
-  </si>
-  <si>
-    <t>70,82%</t>
-  </si>
-  <si>
-    <t>60,19%</t>
-  </si>
-  <si>
-    <t>78,88%</t>
-  </si>
-  <si>
-    <t>68,84%</t>
-  </si>
-  <si>
-    <t>57,23%</t>
-  </si>
-  <si>
-    <t>77,01%</t>
+    <t>71,4%</t>
+  </si>
+  <si>
+    <t>59,67%</t>
+  </si>
+  <si>
+    <t>55,61%</t>
+  </si>
+  <si>
+    <t>63,67%</t>
   </si>
   <si>
     <t>63,06%</t>
   </si>
   <si>
-    <t>76,17%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>71,92%</t>
-  </si>
-  <si>
-    <t>67,58%</t>
-  </si>
-  <si>
-    <t>76,3%</t>
-  </si>
-  <si>
-    <t>70,0%</t>
-  </si>
-  <si>
-    <t>74,03%</t>
-  </si>
-  <si>
-    <t>70,94%</t>
-  </si>
-  <si>
-    <t>67,91%</t>
-  </si>
-  <si>
-    <t>73,79%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>40,6%</t>
-  </si>
-  <si>
-    <t>38,1%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>41,53%</t>
-  </si>
-  <si>
-    <t>37,61%</t>
-  </si>
-  <si>
-    <t>35,28%</t>
-  </si>
-  <si>
-    <t>39,83%</t>
-  </si>
-  <si>
-    <t>62,91%</t>
-  </si>
-  <si>
-    <t>59,4%</t>
-  </si>
-  <si>
-    <t>66,28%</t>
-  </si>
-  <si>
-    <t>61,9%</t>
-  </si>
-  <si>
-    <t>58,47%</t>
-  </si>
-  <si>
-    <t>65,22%</t>
-  </si>
-  <si>
-    <t>62,39%</t>
-  </si>
-  <si>
-    <t>60,17%</t>
-  </si>
-  <si>
-    <t>64,72%</t>
-  </si>
-  <si>
-    <t>33,37%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>40,33%</t>
-  </si>
-  <si>
-    <t>35,76%</t>
-  </si>
-  <si>
-    <t>44,22%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>39,59%</t>
-  </si>
-  <si>
-    <t>66,63%</t>
-  </si>
-  <si>
-    <t>61,92%</t>
-  </si>
-  <si>
-    <t>70,36%</t>
-  </si>
-  <si>
-    <t>59,67%</t>
-  </si>
-  <si>
-    <t>55,78%</t>
-  </si>
-  <si>
-    <t>64,24%</t>
-  </si>
-  <si>
-    <t>60,41%</t>
+    <t>59,85%</t>
   </si>
   <si>
     <t>65,94%</t>
   </si>
   <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>41,64%</t>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>41,79%</t>
   </si>
   <si>
     <t>38,53%</t>
   </si>
   <si>
-    <t>35,34%</t>
-  </si>
-  <si>
-    <t>42,06%</t>
+    <t>41,91%</t>
   </si>
   <si>
     <t>38,28%</t>
   </si>
   <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>40,68%</t>
-  </si>
-  <si>
-    <t>62,01%</t>
-  </si>
-  <si>
-    <t>58,36%</t>
-  </si>
-  <si>
-    <t>65,46%</t>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>40,71%</t>
+  </si>
+  <si>
+    <t>58,21%</t>
+  </si>
+  <si>
+    <t>65,59%</t>
   </si>
   <si>
     <t>61,47%</t>
   </si>
   <si>
-    <t>57,94%</t>
-  </si>
-  <si>
-    <t>64,66%</t>
+    <t>58,09%</t>
   </si>
   <si>
     <t>61,72%</t>
   </si>
   <si>
-    <t>59,32%</t>
-  </si>
-  <si>
-    <t>64,21%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>36,63%</t>
+    <t>59,29%</t>
+  </si>
+  <si>
+    <t>64,15%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>36,73%</t>
   </si>
   <si>
     <t>37,19%</t>
   </si>
   <si>
-    <t>35,48%</t>
+    <t>35,49%</t>
+  </si>
+  <si>
+    <t>39,28%</t>
   </si>
   <si>
     <t>36,06%</t>
   </si>
   <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>63,37%</t>
-  </si>
-  <si>
-    <t>67,19%</t>
+    <t>34,7%</t>
+  </si>
+  <si>
+    <t>37,35%</t>
+  </si>
+  <si>
+    <t>63,27%</t>
+  </si>
+  <si>
+    <t>66,94%</t>
   </si>
   <si>
     <t>62,81%</t>
   </si>
   <si>
-    <t>64,52%</t>
+    <t>60,72%</t>
+  </si>
+  <si>
+    <t>64,51%</t>
   </si>
   <si>
     <t>63,94%</t>
   </si>
   <si>
-    <t>62,63%</t>
-  </si>
-  <si>
-    <t>65,17%</t>
+    <t>62,65%</t>
+  </si>
+  <si>
+    <t>65,3%</t>
   </si>
   <si>
     <t>Población según si el motivo por su última visita al dentista fue una limpieza de boca en 2023 (Tasa respuesta: 96,88%)</t>
@@ -1761,7 +1773,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2430AC87-6709-4D8F-B7AB-10C898428AFB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D81CA1F-4EC7-4D62-8EB8-74CED6BD93F0}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1933,7 +1945,7 @@
         <v>56</v>
       </c>
       <c r="D5" s="7">
-        <v>62029</v>
+        <v>62030</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1984,7 +1996,7 @@
         <v>70</v>
       </c>
       <c r="D6" s="7">
-        <v>77765</v>
+        <v>77766</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2738,7 +2750,7 @@
         <v>3630</v>
       </c>
       <c r="N20" s="7">
-        <v>3693421</v>
+        <v>3693422</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>122</v>
@@ -2789,7 +2801,7 @@
         <v>5083</v>
       </c>
       <c r="N21" s="7">
-        <v>5192750</v>
+        <v>5192751</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2824,7 +2836,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54322CFB-4266-4ED2-BA15-7C8A3EE63A8C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C994287-8915-4231-B259-DD24C84DFA4A}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3121,10 +3133,10 @@
         <v>148</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="M7" s="7">
         <v>249</v>
@@ -3133,13 +3145,13 @@
         <v>263880</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3154,13 +3166,13 @@
         <v>395285</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="H8" s="7">
         <v>368</v>
@@ -3169,13 +3181,13 @@
         <v>387906</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>158</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>159</v>
+        <v>45</v>
       </c>
       <c r="M8" s="7">
         <v>737</v>
@@ -3184,13 +3196,13 @@
         <v>783191</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3258,13 +3270,13 @@
         <v>261371</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="H10" s="7">
         <v>218</v>
@@ -3273,13 +3285,13 @@
         <v>238073</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="M10" s="7">
         <v>455</v>
@@ -3288,13 +3300,13 @@
         <v>499444</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3309,13 +3321,13 @@
         <v>604615</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H11" s="7">
         <v>604</v>
@@ -3324,13 +3336,13 @@
         <v>661791</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M11" s="7">
         <v>1165</v>
@@ -3339,10 +3351,10 @@
         <v>1266406</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>178</v>
@@ -3729,7 +3741,7 @@
         <v>216</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>19</v>
+        <v>217</v>
       </c>
       <c r="H19" s="7">
         <v>913</v>
@@ -3738,13 +3750,13 @@
         <v>983135</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M19" s="7">
         <v>1727</v>
@@ -3753,13 +3765,13 @@
         <v>1846997</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3774,13 +3786,13 @@
         <v>2047744</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>28</v>
+        <v>225</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="H20" s="7">
         <v>2004</v>
@@ -3789,13 +3801,13 @@
         <v>2165167</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="M20" s="7">
         <v>3923</v>
@@ -3804,13 +3816,13 @@
         <v>4212911</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3887,7 +3899,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3E4656F-938F-48F8-B4B9-C2E6066D5475}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F484E60D-3215-4802-8A6E-C81904B4EE07}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3904,7 +3916,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4011,13 +4023,13 @@
         <v>28818</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="H4" s="7">
         <v>32</v>
@@ -4026,13 +4038,13 @@
         <v>31469</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="M4" s="7">
         <v>60</v>
@@ -4041,13 +4053,13 @@
         <v>60288</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4062,13 +4074,13 @@
         <v>69957</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="H5" s="7">
         <v>70</v>
@@ -4077,13 +4089,13 @@
         <v>69532</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="M5" s="7">
         <v>137</v>
@@ -4092,13 +4104,13 @@
         <v>139488</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4166,13 +4178,13 @@
         <v>119662</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H7" s="7">
         <v>133</v>
@@ -4181,13 +4193,13 @@
         <v>133030</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>135</v>
+        <v>255</v>
       </c>
       <c r="M7" s="7">
         <v>248</v>
@@ -4196,13 +4208,13 @@
         <v>252693</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4217,13 +4229,13 @@
         <v>306556</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="H8" s="7">
         <v>309</v>
@@ -4232,13 +4244,13 @@
         <v>310331</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>143</v>
+        <v>263</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="M8" s="7">
         <v>606</v>
@@ -4247,13 +4259,13 @@
         <v>616887</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4321,13 +4333,13 @@
         <v>302806</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="H10" s="7">
         <v>315</v>
@@ -4336,13 +4348,13 @@
         <v>330077</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="M10" s="7">
         <v>590</v>
@@ -4351,13 +4363,13 @@
         <v>632883</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4372,13 +4384,13 @@
         <v>513540</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="H11" s="7">
         <v>503</v>
@@ -4387,13 +4399,13 @@
         <v>536296</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="M11" s="7">
         <v>982</v>
@@ -4402,13 +4414,13 @@
         <v>1049836</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4476,13 +4488,13 @@
         <v>183636</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="H13" s="7">
         <v>224</v>
@@ -4491,13 +4503,13 @@
         <v>233836</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="M13" s="7">
         <v>395</v>
@@ -4506,13 +4518,13 @@
         <v>417471</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>239</v>
+        <v>292</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4527,13 +4539,13 @@
         <v>366724</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="H14" s="7">
         <v>328</v>
@@ -4542,13 +4554,13 @@
         <v>345902</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="M14" s="7">
         <v>658</v>
@@ -4557,13 +4569,13 @@
         <v>712627</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>246</v>
+        <v>301</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4631,13 +4643,13 @@
         <v>293529</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>298</v>
+        <v>184</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="H16" s="7">
         <v>318</v>
@@ -4646,13 +4658,13 @@
         <v>337860</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>302</v>
+        <v>275</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="M16" s="7">
         <v>613</v>
@@ -4661,13 +4673,13 @@
         <v>631389</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4682,13 +4694,13 @@
         <v>479106</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>307</v>
+        <v>192</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="H17" s="7">
         <v>495</v>
@@ -4697,13 +4709,13 @@
         <v>538981</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>312</v>
+        <v>285</v>
       </c>
       <c r="M17" s="7">
         <v>968</v>
@@ -4712,13 +4724,13 @@
         <v>1018087</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4786,13 +4798,13 @@
         <v>928451</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="H19" s="7">
         <v>1022</v>
@@ -4801,13 +4813,13 @@
         <v>1066273</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>199</v>
+        <v>322</v>
       </c>
       <c r="M19" s="7">
         <v>1906</v>
@@ -4816,13 +4828,13 @@
         <v>1994724</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4834,16 +4846,16 @@
         <v>1646</v>
       </c>
       <c r="D20" s="7">
-        <v>1735882</v>
+        <v>1735883</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="H20" s="7">
         <v>1705</v>
@@ -4852,13 +4864,13 @@
         <v>1801042</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>207</v>
+        <v>329</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="M20" s="7">
         <v>3351</v>
@@ -4867,13 +4879,13 @@
         <v>3536924</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4885,7 +4897,7 @@
         <v>2530</v>
       </c>
       <c r="D21" s="7">
-        <v>2664333</v>
+        <v>2664334</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -4950,7 +4962,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{234EDBDB-DAD9-40AD-9ECB-43D55DDA52D4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC7D4401-26CE-4E02-BDAB-CD781B9B489F}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4967,7 +4979,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5074,13 +5086,13 @@
         <v>41997</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="H4" s="7">
         <v>102</v>
@@ -5089,13 +5101,13 @@
         <v>54124</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="M4" s="7">
         <v>146</v>
@@ -5104,13 +5116,13 @@
         <v>96122</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5125,13 +5137,13 @@
         <v>58477</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="H5" s="7">
         <v>136</v>
@@ -5140,13 +5152,13 @@
         <v>74162</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="M5" s="7">
         <v>207</v>
@@ -5155,13 +5167,13 @@
         <v>132638</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5229,13 +5241,13 @@
         <v>226774</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="H7" s="7">
         <v>467</v>
@@ -5244,13 +5256,13 @@
         <v>287285</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="M7" s="7">
         <v>701</v>
@@ -5259,13 +5271,13 @@
         <v>514060</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5280,13 +5292,13 @@
         <v>299375</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="H8" s="7">
         <v>492</v>
@@ -5295,13 +5307,13 @@
         <v>282212</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="M8" s="7">
         <v>839</v>
@@ -5310,13 +5322,13 @@
         <v>581586</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5384,13 +5396,13 @@
         <v>499323</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="H10" s="7">
         <v>769</v>
@@ -5399,13 +5411,13 @@
         <v>548267</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="M10" s="7">
         <v>1213</v>
@@ -5414,13 +5426,13 @@
         <v>1047590</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5435,13 +5447,13 @@
         <v>516046</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="H11" s="7">
         <v>717</v>
@@ -5450,13 +5462,13 @@
         <v>493833</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="M11" s="7">
         <v>1209</v>
@@ -5465,13 +5477,13 @@
         <v>1009879</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5539,13 +5551,13 @@
         <v>313517</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="H13" s="7">
         <v>445</v>
@@ -5554,13 +5566,13 @@
         <v>424064</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="M13" s="7">
         <v>731</v>
@@ -5569,13 +5581,13 @@
         <v>737581</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5590,13 +5602,13 @@
         <v>395024</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="H14" s="7">
         <v>579</v>
@@ -5605,13 +5617,13 @@
         <v>438124</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="M14" s="7">
         <v>948</v>
@@ -5620,13 +5632,13 @@
         <v>833149</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5694,13 +5706,13 @@
         <v>453324</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="H16" s="7">
         <v>735</v>
@@ -5709,13 +5721,13 @@
         <v>547207</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="M16" s="7">
         <v>1200</v>
@@ -5724,13 +5736,13 @@
         <v>1000532</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5745,13 +5757,13 @@
         <v>473054</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="H17" s="7">
         <v>775</v>
@@ -5760,13 +5772,13 @@
         <v>567569</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="M17" s="7">
         <v>1276</v>
@@ -5775,13 +5787,13 @@
         <v>1040622</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5849,13 +5861,13 @@
         <v>1534936</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="H19" s="7">
         <v>2518</v>
@@ -5864,13 +5876,13 @@
         <v>1860948</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="M19" s="7">
         <v>3991</v>
@@ -5879,13 +5891,13 @@
         <v>3395885</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5900,13 +5912,13 @@
         <v>1741975</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="H20" s="7">
         <v>2699</v>
@@ -5915,13 +5927,13 @@
         <v>1855900</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="M20" s="7">
         <v>4479</v>
@@ -5930,13 +5942,13 @@
         <v>3597875</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P19C02-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P19C02-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F419F8F1-226D-4C9C-9882-7A8FDBB9905A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D3CEDA7-F953-4E37-A351-D0E3A5D23038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E5593809-6AC2-4B8D-A7F7-8F974286D5DC}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C4F60DD7-7732-43A3-9022-BFD16EB38740}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="431">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue una limpieza de boca en 2007 (Tasa respuesta: 78,07%)</t>
   </si>
@@ -71,34 +71,34 @@
     <t>&lt;2.000hab</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>20,24%</t>
   </si>
   <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
   </si>
   <si>
     <t>27,93%</t>
   </si>
   <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>37,2%</t>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
   </si>
   <si>
     <t>24,46%</t>
   </si>
   <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>79,76%</t>
   </si>
   <si>
-    <t>68,48%</t>
-  </si>
-  <si>
-    <t>88,21%</t>
+    <t>69,31%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
   </si>
   <si>
     <t>72,07%</t>
   </si>
   <si>
-    <t>62,8%</t>
-  </si>
-  <si>
-    <t>80,22%</t>
+    <t>63,77%</t>
+  </si>
+  <si>
+    <t>79,84%</t>
   </si>
   <si>
     <t>75,54%</t>
   </si>
   <si>
-    <t>69,05%</t>
-  </si>
-  <si>
-    <t>82,08%</t>
+    <t>68,89%</t>
+  </si>
+  <si>
+    <t>81,36%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,49 @@
     <t>21,92%</t>
   </si>
   <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
   </si>
   <si>
     <t>21,22%</t>
   </si>
   <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
   </si>
   <si>
     <t>21,55%</t>
   </si>
   <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
+    <t>24,33%</t>
   </si>
   <si>
     <t>78,08%</t>
   </si>
   <si>
-    <t>73,65%</t>
-  </si>
-  <si>
-    <t>82,23%</t>
+    <t>74,06%</t>
+  </si>
+  <si>
+    <t>82,35%</t>
   </si>
   <si>
     <t>78,78%</t>
   </si>
   <si>
-    <t>74,99%</t>
-  </si>
-  <si>
-    <t>82,3%</t>
+    <t>74,73%</t>
+  </si>
+  <si>
+    <t>82,58%</t>
   </si>
   <si>
     <t>78,45%</t>
   </si>
   <si>
-    <t>75,68%</t>
-  </si>
-  <si>
-    <t>81,25%</t>
+    <t>75,67%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
@@ -197,55 +191,55 @@
     <t>26,91%</t>
   </si>
   <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
   </si>
   <si>
     <t>28,47%</t>
   </si>
   <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
   </si>
   <si>
     <t>27,73%</t>
   </si>
   <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
   </si>
   <si>
     <t>73,09%</t>
   </si>
   <si>
-    <t>69,73%</t>
-  </si>
-  <si>
-    <t>76,9%</t>
+    <t>69,18%</t>
+  </si>
+  <si>
+    <t>76,6%</t>
   </si>
   <si>
     <t>71,53%</t>
   </si>
   <si>
-    <t>67,98%</t>
-  </si>
-  <si>
-    <t>74,7%</t>
+    <t>67,89%</t>
+  </si>
+  <si>
+    <t>74,58%</t>
   </si>
   <si>
     <t>72,27%</t>
   </si>
   <si>
-    <t>69,66%</t>
-  </si>
-  <si>
-    <t>74,57%</t>
+    <t>69,89%</t>
+  </si>
+  <si>
+    <t>74,54%</t>
   </si>
   <si>
     <t>&gt;50.000hab</t>
@@ -254,1114 +248,1090 @@
     <t>30,13%</t>
   </si>
   <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
   </si>
   <si>
     <t>33,52%</t>
   </si>
   <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>37,48%</t>
   </si>
   <si>
     <t>31,88%</t>
   </si>
   <si>
-    <t>29,15%</t>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>69,87%</t>
+  </si>
+  <si>
+    <t>65,73%</t>
+  </si>
+  <si>
+    <t>73,96%</t>
+  </si>
+  <si>
+    <t>66,48%</t>
+  </si>
+  <si>
+    <t>62,52%</t>
+  </si>
+  <si>
+    <t>70,32%</t>
+  </si>
+  <si>
+    <t>68,12%</t>
+  </si>
+  <si>
+    <t>65,39%</t>
+  </si>
+  <si>
+    <t>71,11%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>66,12%</t>
+  </si>
+  <si>
+    <t>62,49%</t>
+  </si>
+  <si>
+    <t>69,48%</t>
+  </si>
+  <si>
+    <t>69,01%</t>
+  </si>
+  <si>
+    <t>65,46%</t>
+  </si>
+  <si>
+    <t>72,2%</t>
+  </si>
+  <si>
+    <t>67,66%</t>
+  </si>
+  <si>
+    <t>65,38%</t>
+  </si>
+  <si>
+    <t>70,12%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>71,38%</t>
+  </si>
+  <si>
+    <t>69,5%</t>
+  </si>
+  <si>
+    <t>73,12%</t>
+  </si>
+  <si>
+    <t>70,9%</t>
+  </si>
+  <si>
+    <t>69,12%</t>
+  </si>
+  <si>
+    <t>72,52%</t>
+  </si>
+  <si>
+    <t>71,13%</t>
+  </si>
+  <si>
+    <t>69,95%</t>
+  </si>
+  <si>
+    <t>72,39%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue una limpieza de boca en 2012 (Tasa respuesta: 86,83%)</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>40,54%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>75,71%</t>
+  </si>
+  <si>
+    <t>65,77%</t>
+  </si>
+  <si>
+    <t>82,94%</t>
+  </si>
+  <si>
+    <t>70,67%</t>
+  </si>
+  <si>
+    <t>59,46%</t>
+  </si>
+  <si>
+    <t>79,28%</t>
+  </si>
+  <si>
+    <t>73,28%</t>
+  </si>
+  <si>
+    <t>66,75%</t>
+  </si>
+  <si>
+    <t>79,33%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>78,41%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
+  </si>
+  <si>
+    <t>71,45%</t>
+  </si>
+  <si>
+    <t>67,03%</t>
+  </si>
+  <si>
+    <t>75,35%</t>
+  </si>
+  <si>
+    <t>74,8%</t>
+  </si>
+  <si>
+    <t>72,0%</t>
+  </si>
+  <si>
+    <t>77,65%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>69,82%</t>
+  </si>
+  <si>
+    <t>66,36%</t>
+  </si>
+  <si>
+    <t>72,7%</t>
+  </si>
+  <si>
+    <t>73,54%</t>
+  </si>
+  <si>
+    <t>70,29%</t>
+  </si>
+  <si>
+    <t>76,39%</t>
+  </si>
+  <si>
+    <t>71,72%</t>
+  </si>
+  <si>
+    <t>69,39%</t>
+  </si>
+  <si>
+    <t>73,66%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>37,97%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>34,34%</t>
+  </si>
+  <si>
+    <t>71,36%</t>
+  </si>
+  <si>
+    <t>67,31%</t>
+  </si>
+  <si>
+    <t>74,94%</t>
+  </si>
+  <si>
+    <t>66,0%</t>
+  </si>
+  <si>
+    <t>62,03%</t>
+  </si>
+  <si>
+    <t>69,64%</t>
+  </si>
+  <si>
+    <t>68,6%</t>
+  </si>
+  <si>
+    <t>65,66%</t>
+  </si>
+  <si>
+    <t>71,22%</t>
+  </si>
+  <si>
+    <t>35,67%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>39,39%</t>
+  </si>
+  <si>
+    <t>35,56%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
+  </si>
+  <si>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>37,94%</t>
+  </si>
+  <si>
+    <t>64,33%</t>
+  </si>
+  <si>
+    <t>60,61%</t>
+  </si>
+  <si>
+    <t>67,34%</t>
+  </si>
+  <si>
+    <t>64,44%</t>
+  </si>
+  <si>
+    <t>61,15%</t>
+  </si>
+  <si>
+    <t>67,65%</t>
+  </si>
+  <si>
+    <t>64,39%</t>
+  </si>
+  <si>
+    <t>62,06%</t>
+  </si>
+  <si>
+    <t>66,72%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>70,33%</t>
+  </si>
+  <si>
+    <t>68,55%</t>
+  </si>
+  <si>
+    <t>72,17%</t>
+  </si>
+  <si>
+    <t>68,77%</t>
+  </si>
+  <si>
+    <t>67,08%</t>
+  </si>
+  <si>
+    <t>70,6%</t>
+  </si>
+  <si>
+    <t>69,52%</t>
+  </si>
+  <si>
+    <t>68,27%</t>
+  </si>
+  <si>
+    <t>70,66%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue una limpieza de boca en 2016 (Tasa respuesta: 80,03%)</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>38,81%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>40,29%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>36,46%</t>
+  </si>
+  <si>
+    <t>70,82%</t>
+  </si>
+  <si>
+    <t>61,19%</t>
+  </si>
+  <si>
+    <t>79,01%</t>
+  </si>
+  <si>
+    <t>68,84%</t>
+  </si>
+  <si>
+    <t>59,71%</t>
+  </si>
+  <si>
+    <t>77,55%</t>
+  </si>
+  <si>
+    <t>63,54%</t>
+  </si>
+  <si>
+    <t>76,38%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>71,92%</t>
+  </si>
+  <si>
+    <t>66,89%</t>
+  </si>
+  <si>
+    <t>76,37%</t>
+  </si>
+  <si>
+    <t>70,0%</t>
+  </si>
+  <si>
+    <t>65,59%</t>
+  </si>
+  <si>
+    <t>74,11%</t>
+  </si>
+  <si>
+    <t>70,94%</t>
+  </si>
+  <si>
+    <t>67,61%</t>
+  </si>
+  <si>
+    <t>73,99%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>40,62%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>41,87%</t>
+  </si>
+  <si>
+    <t>37,61%</t>
+  </si>
+  <si>
+    <t>35,08%</t>
+  </si>
+  <si>
+    <t>40,1%</t>
+  </si>
+  <si>
+    <t>62,91%</t>
+  </si>
+  <si>
+    <t>59,38%</t>
+  </si>
+  <si>
+    <t>61,9%</t>
+  </si>
+  <si>
+    <t>58,13%</t>
+  </si>
+  <si>
+    <t>65,01%</t>
+  </si>
+  <si>
+    <t>62,39%</t>
+  </si>
+  <si>
+    <t>59,9%</t>
+  </si>
+  <si>
+    <t>64,92%</t>
+  </si>
+  <si>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>37,35%</t>
+  </si>
+  <si>
+    <t>40,33%</t>
+  </si>
+  <si>
+    <t>36,01%</t>
+  </si>
+  <si>
+    <t>44,38%</t>
+  </si>
+  <si>
+    <t>36,94%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>39,78%</t>
+  </si>
+  <si>
+    <t>66,63%</t>
+  </si>
+  <si>
+    <t>62,65%</t>
+  </si>
+  <si>
+    <t>71,33%</t>
+  </si>
+  <si>
+    <t>59,67%</t>
+  </si>
+  <si>
+    <t>55,62%</t>
+  </si>
+  <si>
+    <t>63,99%</t>
+  </si>
+  <si>
+    <t>63,06%</t>
+  </si>
+  <si>
+    <t>60,22%</t>
+  </si>
+  <si>
+    <t>65,82%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>41,59%</t>
+  </si>
+  <si>
+    <t>38,53%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
+  </si>
+  <si>
+    <t>41,75%</t>
+  </si>
+  <si>
+    <t>38,28%</t>
+  </si>
+  <si>
+    <t>40,75%</t>
+  </si>
+  <si>
+    <t>62,01%</t>
+  </si>
+  <si>
+    <t>58,41%</t>
+  </si>
+  <si>
+    <t>65,51%</t>
+  </si>
+  <si>
+    <t>61,47%</t>
+  </si>
+  <si>
+    <t>58,25%</t>
+  </si>
+  <si>
+    <t>64,79%</t>
+  </si>
+  <si>
+    <t>61,72%</t>
+  </si>
+  <si>
+    <t>59,25%</t>
   </si>
   <si>
     <t>34,85%</t>
   </si>
   <si>
-    <t>69,87%</t>
-  </si>
-  <si>
-    <t>64,91%</t>
-  </si>
-  <si>
-    <t>73,43%</t>
-  </si>
-  <si>
-    <t>66,48%</t>
-  </si>
-  <si>
-    <t>62,51%</t>
-  </si>
-  <si>
-    <t>70,57%</t>
-  </si>
-  <si>
-    <t>68,12%</t>
+    <t>36,78%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>39,0%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>34,79%</t>
+  </si>
+  <si>
+    <t>37,42%</t>
   </si>
   <si>
     <t>65,15%</t>
   </si>
   <si>
-    <t>70,85%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>37,31%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>66,12%</t>
-  </si>
-  <si>
-    <t>62,69%</t>
-  </si>
-  <si>
-    <t>69,36%</t>
-  </si>
-  <si>
-    <t>69,01%</t>
-  </si>
-  <si>
-    <t>65,73%</t>
-  </si>
-  <si>
-    <t>72,24%</t>
-  </si>
-  <si>
-    <t>67,66%</t>
-  </si>
-  <si>
-    <t>65,47%</t>
-  </si>
-  <si>
-    <t>70,08%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>71,38%</t>
-  </si>
-  <si>
-    <t>69,56%</t>
-  </si>
-  <si>
-    <t>73,22%</t>
-  </si>
-  <si>
-    <t>70,9%</t>
-  </si>
-  <si>
-    <t>69,25%</t>
-  </si>
-  <si>
-    <t>72,7%</t>
-  </si>
-  <si>
-    <t>71,13%</t>
-  </si>
-  <si>
-    <t>69,84%</t>
-  </si>
-  <si>
-    <t>72,31%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue una limpieza de boca en 2012 (Tasa respuesta: 86,83%)</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>34,16%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>40,08%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>33,31%</t>
-  </si>
-  <si>
-    <t>75,71%</t>
-  </si>
-  <si>
-    <t>65,84%</t>
-  </si>
-  <si>
-    <t>83,3%</t>
-  </si>
-  <si>
-    <t>70,67%</t>
-  </si>
-  <si>
-    <t>59,92%</t>
-  </si>
-  <si>
-    <t>79,79%</t>
-  </si>
-  <si>
-    <t>73,28%</t>
-  </si>
-  <si>
-    <t>66,69%</t>
-  </si>
-  <si>
-    <t>79,29%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>32,86%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>78,41%</t>
-  </si>
-  <si>
-    <t>74,77%</t>
-  </si>
-  <si>
-    <t>81,93%</t>
-  </si>
-  <si>
-    <t>71,45%</t>
-  </si>
-  <si>
-    <t>67,14%</t>
-  </si>
-  <si>
-    <t>74,8%</t>
-  </si>
-  <si>
-    <t>72,29%</t>
-  </si>
-  <si>
-    <t>77,6%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>33,43%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>30,6%</t>
-  </si>
-  <si>
-    <t>69,82%</t>
-  </si>
-  <si>
-    <t>66,57%</t>
-  </si>
-  <si>
-    <t>73,31%</t>
-  </si>
-  <si>
-    <t>73,54%</t>
-  </si>
-  <si>
-    <t>70,47%</t>
-  </si>
-  <si>
-    <t>76,64%</t>
-  </si>
-  <si>
-    <t>71,72%</t>
-  </si>
-  <si>
-    <t>69,4%</t>
-  </si>
-  <si>
-    <t>73,86%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>71,36%</t>
-  </si>
-  <si>
-    <t>67,68%</t>
-  </si>
-  <si>
-    <t>75,16%</t>
-  </si>
-  <si>
-    <t>66,0%</t>
-  </si>
-  <si>
-    <t>62,01%</t>
-  </si>
-  <si>
-    <t>69,68%</t>
-  </si>
-  <si>
-    <t>68,6%</t>
-  </si>
-  <si>
-    <t>66,07%</t>
-  </si>
-  <si>
-    <t>71,47%</t>
-  </si>
-  <si>
-    <t>35,67%</t>
-  </si>
-  <si>
-    <t>32,19%</t>
-  </si>
-  <si>
-    <t>39,31%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>38,94%</t>
-  </si>
-  <si>
-    <t>35,61%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>38,0%</t>
-  </si>
-  <si>
-    <t>64,33%</t>
-  </si>
-  <si>
-    <t>60,69%</t>
-  </si>
-  <si>
-    <t>67,81%</t>
-  </si>
-  <si>
-    <t>64,44%</t>
-  </si>
-  <si>
-    <t>61,06%</t>
-  </si>
-  <si>
-    <t>67,45%</t>
-  </si>
-  <si>
-    <t>64,39%</t>
-  </si>
-  <si>
-    <t>62,0%</t>
-  </si>
-  <si>
-    <t>66,7%</t>
-  </si>
-  <si>
-    <t>29,67%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>70,33%</t>
-  </si>
-  <si>
-    <t>68,57%</t>
-  </si>
-  <si>
-    <t>72,08%</t>
-  </si>
-  <si>
-    <t>68,77%</t>
-  </si>
-  <si>
-    <t>66,99%</t>
-  </si>
-  <si>
-    <t>70,29%</t>
-  </si>
-  <si>
-    <t>69,52%</t>
-  </si>
-  <si>
-    <t>68,29%</t>
-  </si>
-  <si>
-    <t>70,65%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue una limpieza de boca en 2016 (Tasa respuesta: 80,03%)</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>38,38%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>40,81%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>36,59%</t>
-  </si>
-  <si>
-    <t>70,82%</t>
-  </si>
-  <si>
-    <t>61,62%</t>
-  </si>
-  <si>
-    <t>79,54%</t>
-  </si>
-  <si>
-    <t>68,84%</t>
-  </si>
-  <si>
-    <t>59,19%</t>
-  </si>
-  <si>
-    <t>77,22%</t>
-  </si>
-  <si>
-    <t>63,41%</t>
-  </si>
-  <si>
-    <t>76,22%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>32,08%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>71,92%</t>
-  </si>
-  <si>
-    <t>67,92%</t>
-  </si>
-  <si>
-    <t>76,62%</t>
-  </si>
-  <si>
-    <t>70,0%</t>
-  </si>
-  <si>
-    <t>65,56%</t>
-  </si>
-  <si>
-    <t>74,25%</t>
-  </si>
-  <si>
-    <t>70,94%</t>
-  </si>
-  <si>
-    <t>67,54%</t>
-  </si>
-  <si>
-    <t>74,02%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
-  </si>
-  <si>
-    <t>33,68%</t>
-  </si>
-  <si>
-    <t>40,68%</t>
-  </si>
-  <si>
-    <t>38,1%</t>
-  </si>
-  <si>
-    <t>34,8%</t>
-  </si>
-  <si>
-    <t>41,47%</t>
-  </si>
-  <si>
-    <t>37,61%</t>
-  </si>
-  <si>
-    <t>35,18%</t>
+    <t>63,22%</t>
+  </si>
+  <si>
+    <t>62,81%</t>
+  </si>
+  <si>
+    <t>61,0%</t>
+  </si>
+  <si>
+    <t>64,73%</t>
+  </si>
+  <si>
+    <t>63,94%</t>
+  </si>
+  <si>
+    <t>62,58%</t>
+  </si>
+  <si>
+    <t>65,21%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue una limpieza de boca en 2023 (Tasa respuesta: 96,88%)</t>
+  </si>
+  <si>
+    <t>41,8%</t>
+  </si>
+  <si>
+    <t>52,42%</t>
+  </si>
+  <si>
+    <t>42,19%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
+  </si>
+  <si>
+    <t>49,15%</t>
+  </si>
+  <si>
+    <t>42,02%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>48,38%</t>
+  </si>
+  <si>
+    <t>58,2%</t>
+  </si>
+  <si>
+    <t>47,58%</t>
+  </si>
+  <si>
+    <t>57,81%</t>
+  </si>
+  <si>
+    <t>50,85%</t>
+  </si>
+  <si>
+    <t>64,84%</t>
+  </si>
+  <si>
+    <t>57,98%</t>
+  </si>
+  <si>
+    <t>51,62%</t>
+  </si>
+  <si>
+    <t>63,51%</t>
+  </si>
+  <si>
+    <t>43,1%</t>
+  </si>
+  <si>
+    <t>38,86%</t>
+  </si>
+  <si>
+    <t>47,87%</t>
+  </si>
+  <si>
+    <t>50,45%</t>
+  </si>
+  <si>
+    <t>46,7%</t>
+  </si>
+  <si>
+    <t>53,85%</t>
+  </si>
+  <si>
+    <t>46,92%</t>
+  </si>
+  <si>
+    <t>43,87%</t>
+  </si>
+  <si>
+    <t>49,54%</t>
+  </si>
+  <si>
+    <t>56,9%</t>
+  </si>
+  <si>
+    <t>52,13%</t>
+  </si>
+  <si>
+    <t>61,14%</t>
+  </si>
+  <si>
+    <t>49,55%</t>
+  </si>
+  <si>
+    <t>46,15%</t>
+  </si>
+  <si>
+    <t>53,3%</t>
+  </si>
+  <si>
+    <t>53,08%</t>
+  </si>
+  <si>
+    <t>50,46%</t>
+  </si>
+  <si>
+    <t>56,13%</t>
+  </si>
+  <si>
+    <t>49,18%</t>
+  </si>
+  <si>
+    <t>40,64%</t>
+  </si>
+  <si>
+    <t>53,49%</t>
+  </si>
+  <si>
+    <t>52,61%</t>
+  </si>
+  <si>
+    <t>49,49%</t>
+  </si>
+  <si>
+    <t>55,21%</t>
+  </si>
+  <si>
+    <t>50,92%</t>
+  </si>
+  <si>
+    <t>46,33%</t>
+  </si>
+  <si>
+    <t>50,82%</t>
+  </si>
+  <si>
+    <t>46,51%</t>
+  </si>
+  <si>
+    <t>59,36%</t>
+  </si>
+  <si>
+    <t>47,39%</t>
+  </si>
+  <si>
+    <t>44,79%</t>
+  </si>
+  <si>
+    <t>50,51%</t>
+  </si>
+  <si>
+    <t>49,08%</t>
+  </si>
+  <si>
+    <t>53,67%</t>
+  </si>
+  <si>
+    <t>44,25%</t>
   </si>
   <si>
     <t>40,06%</t>
   </si>
   <si>
-    <t>62,91%</t>
-  </si>
-  <si>
-    <t>59,32%</t>
-  </si>
-  <si>
-    <t>66,32%</t>
-  </si>
-  <si>
-    <t>61,9%</t>
-  </si>
-  <si>
-    <t>58,53%</t>
-  </si>
-  <si>
-    <t>65,2%</t>
-  </si>
-  <si>
-    <t>62,39%</t>
+    <t>48,56%</t>
+  </si>
+  <si>
+    <t>40,71%</t>
+  </si>
+  <si>
+    <t>67,2%</t>
+  </si>
+  <si>
+    <t>46,96%</t>
+  </si>
+  <si>
+    <t>41,94%</t>
+  </si>
+  <si>
+    <t>61,02%</t>
+  </si>
+  <si>
+    <t>55,75%</t>
+  </si>
+  <si>
+    <t>51,44%</t>
   </si>
   <si>
     <t>59,94%</t>
   </si>
   <si>
-    <t>64,82%</t>
-  </si>
-  <si>
-    <t>33,37%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>37,4%</t>
-  </si>
-  <si>
-    <t>40,33%</t>
-  </si>
-  <si>
-    <t>36,33%</t>
-  </si>
-  <si>
-    <t>44,39%</t>
-  </si>
-  <si>
-    <t>36,94%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
-  </si>
-  <si>
-    <t>66,63%</t>
-  </si>
-  <si>
-    <t>62,6%</t>
-  </si>
-  <si>
-    <t>71,4%</t>
-  </si>
-  <si>
-    <t>59,67%</t>
-  </si>
-  <si>
-    <t>55,61%</t>
-  </si>
-  <si>
-    <t>63,67%</t>
-  </si>
-  <si>
-    <t>63,06%</t>
-  </si>
-  <si>
-    <t>59,85%</t>
-  </si>
-  <si>
-    <t>65,94%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>41,79%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>41,91%</t>
-  </si>
-  <si>
-    <t>38,28%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>40,71%</t>
-  </si>
-  <si>
-    <t>58,21%</t>
-  </si>
-  <si>
-    <t>65,59%</t>
-  </si>
-  <si>
-    <t>61,47%</t>
-  </si>
-  <si>
-    <t>58,09%</t>
-  </si>
-  <si>
-    <t>61,72%</t>
+    <t>32,8%</t>
   </si>
   <si>
     <t>59,29%</t>
   </si>
   <si>
-    <t>64,15%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>36,73%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>35,49%</t>
-  </si>
-  <si>
-    <t>39,28%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>34,7%</t>
-  </si>
-  <si>
-    <t>37,35%</t>
-  </si>
-  <si>
-    <t>63,27%</t>
-  </si>
-  <si>
-    <t>66,94%</t>
-  </si>
-  <si>
-    <t>62,81%</t>
-  </si>
-  <si>
-    <t>60,72%</t>
-  </si>
-  <si>
-    <t>64,51%</t>
-  </si>
-  <si>
-    <t>63,94%</t>
-  </si>
-  <si>
-    <t>62,65%</t>
-  </si>
-  <si>
-    <t>65,3%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue una limpieza de boca en 2023 (Tasa respuesta: 96,88%)</t>
-  </si>
-  <si>
-    <t>41,8%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>52,47%</t>
-  </si>
-  <si>
-    <t>42,19%</t>
-  </si>
-  <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>49,12%</t>
-  </si>
-  <si>
-    <t>42,02%</t>
-  </si>
-  <si>
-    <t>36,32%</t>
-  </si>
-  <si>
-    <t>47,74%</t>
-  </si>
-  <si>
-    <t>58,2%</t>
-  </si>
-  <si>
-    <t>47,53%</t>
-  </si>
-  <si>
-    <t>67,82%</t>
-  </si>
-  <si>
-    <t>57,81%</t>
-  </si>
-  <si>
-    <t>50,88%</t>
-  </si>
-  <si>
-    <t>64,56%</t>
-  </si>
-  <si>
-    <t>57,98%</t>
-  </si>
-  <si>
-    <t>52,26%</t>
-  </si>
-  <si>
-    <t>63,68%</t>
-  </si>
-  <si>
-    <t>43,1%</t>
-  </si>
-  <si>
-    <t>38,78%</t>
-  </si>
-  <si>
-    <t>47,6%</t>
-  </si>
-  <si>
-    <t>50,45%</t>
-  </si>
-  <si>
-    <t>46,97%</t>
-  </si>
-  <si>
-    <t>54,03%</t>
-  </si>
-  <si>
-    <t>46,92%</t>
-  </si>
-  <si>
-    <t>43,93%</t>
-  </si>
-  <si>
-    <t>50,02%</t>
-  </si>
-  <si>
-    <t>56,9%</t>
-  </si>
-  <si>
-    <t>52,4%</t>
-  </si>
-  <si>
-    <t>61,22%</t>
-  </si>
-  <si>
-    <t>49,55%</t>
-  </si>
-  <si>
-    <t>45,97%</t>
-  </si>
-  <si>
-    <t>53,03%</t>
-  </si>
-  <si>
-    <t>53,08%</t>
-  </si>
-  <si>
-    <t>49,98%</t>
-  </si>
-  <si>
-    <t>56,07%</t>
-  </si>
-  <si>
-    <t>49,18%</t>
-  </si>
-  <si>
-    <t>40,8%</t>
-  </si>
-  <si>
-    <t>53,49%</t>
-  </si>
-  <si>
-    <t>52,61%</t>
-  </si>
-  <si>
-    <t>49,59%</t>
-  </si>
-  <si>
-    <t>55,66%</t>
-  </si>
-  <si>
-    <t>50,92%</t>
-  </si>
-  <si>
-    <t>46,69%</t>
-  </si>
-  <si>
-    <t>53,58%</t>
-  </si>
-  <si>
-    <t>50,82%</t>
-  </si>
-  <si>
-    <t>46,51%</t>
-  </si>
-  <si>
-    <t>59,2%</t>
-  </si>
-  <si>
-    <t>47,39%</t>
-  </si>
-  <si>
-    <t>44,34%</t>
-  </si>
-  <si>
-    <t>50,41%</t>
-  </si>
-  <si>
-    <t>49,08%</t>
-  </si>
-  <si>
-    <t>46,42%</t>
-  </si>
-  <si>
-    <t>53,31%</t>
-  </si>
-  <si>
-    <t>44,25%</t>
-  </si>
-  <si>
-    <t>40,03%</t>
-  </si>
-  <si>
-    <t>48,58%</t>
-  </si>
-  <si>
-    <t>40,1%</t>
-  </si>
-  <si>
-    <t>68,03%</t>
-  </si>
-  <si>
-    <t>46,96%</t>
-  </si>
-  <si>
-    <t>42,18%</t>
-  </si>
-  <si>
-    <t>58,89%</t>
-  </si>
-  <si>
-    <t>55,75%</t>
-  </si>
-  <si>
-    <t>51,42%</t>
-  </si>
-  <si>
-    <t>59,97%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>59,9%</t>
-  </si>
-  <si>
     <t>53,04%</t>
   </si>
   <si>
-    <t>41,11%</t>
-  </si>
-  <si>
-    <t>57,82%</t>
+    <t>38,98%</t>
+  </si>
+  <si>
+    <t>58,06%</t>
   </si>
   <si>
     <t>48,94%</t>
   </si>
   <si>
-    <t>45,36%</t>
-  </si>
-  <si>
-    <t>52,48%</t>
+    <t>45,43%</t>
+  </si>
+  <si>
+    <t>52,56%</t>
   </si>
   <si>
     <t>49,09%</t>
   </si>
   <si>
-    <t>45,92%</t>
-  </si>
-  <si>
-    <t>52,06%</t>
+    <t>45,73%</t>
+  </si>
+  <si>
+    <t>52,09%</t>
   </si>
   <si>
     <t>49,02%</t>
   </si>
   <si>
-    <t>46,66%</t>
-  </si>
-  <si>
-    <t>51,23%</t>
+    <t>46,77%</t>
+  </si>
+  <si>
+    <t>51,38%</t>
   </si>
   <si>
     <t>51,06%</t>
   </si>
   <si>
-    <t>47,52%</t>
-  </si>
-  <si>
-    <t>54,64%</t>
+    <t>47,44%</t>
+  </si>
+  <si>
+    <t>54,57%</t>
   </si>
   <si>
     <t>50,91%</t>
   </si>
   <si>
-    <t>47,94%</t>
-  </si>
-  <si>
-    <t>54,08%</t>
+    <t>47,91%</t>
+  </si>
+  <si>
+    <t>54,27%</t>
   </si>
   <si>
     <t>50,98%</t>
   </si>
   <si>
-    <t>48,77%</t>
-  </si>
-  <si>
-    <t>53,34%</t>
+    <t>48,62%</t>
+  </si>
+  <si>
+    <t>53,23%</t>
   </si>
   <si>
     <t>46,84%</t>
   </si>
   <si>
-    <t>43,91%</t>
-  </si>
-  <si>
-    <t>48,85%</t>
+    <t>49,01%</t>
   </si>
   <si>
     <t>50,07%</t>
   </si>
   <si>
-    <t>47,86%</t>
-  </si>
-  <si>
-    <t>55,55%</t>
-  </si>
-  <si>
-    <t>48,56%</t>
-  </si>
-  <si>
-    <t>46,87%</t>
-  </si>
-  <si>
-    <t>51,31%</t>
+    <t>47,89%</t>
+  </si>
+  <si>
+    <t>55,32%</t>
+  </si>
+  <si>
+    <t>46,85%</t>
+  </si>
+  <si>
+    <t>51,51%</t>
   </si>
   <si>
     <t>53,16%</t>
   </si>
   <si>
-    <t>51,15%</t>
-  </si>
-  <si>
-    <t>56,09%</t>
+    <t>50,99%</t>
   </si>
   <si>
     <t>49,93%</t>
   </si>
   <si>
-    <t>44,45%</t>
-  </si>
-  <si>
-    <t>52,14%</t>
-  </si>
-  <si>
-    <t>51,44%</t>
-  </si>
-  <si>
-    <t>48,69%</t>
-  </si>
-  <si>
-    <t>53,13%</t>
+    <t>44,68%</t>
+  </si>
+  <si>
+    <t>52,11%</t>
+  </si>
+  <si>
+    <t>48,49%</t>
+  </si>
+  <si>
+    <t>53,15%</t>
   </si>
 </sst>
 </file>
@@ -1773,7 +1743,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D81CA1F-4EC7-4D62-8EB8-74CED6BD93F0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99A1E77E-A99C-43CD-BC13-830792D0EBA3}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1945,7 +1915,7 @@
         <v>56</v>
       </c>
       <c r="D5" s="7">
-        <v>62030</v>
+        <v>62029</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1996,7 +1966,7 @@
         <v>70</v>
       </c>
       <c r="D6" s="7">
-        <v>77766</v>
+        <v>77765</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2085,10 +2055,10 @@
         <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2103,13 +2073,13 @@
         <v>312375</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>346</v>
@@ -2118,13 +2088,13 @@
         <v>348496</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>662</v>
@@ -2133,13 +2103,13 @@
         <v>660870</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2195,7 +2165,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2207,13 +2177,13 @@
         <v>194345</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>214</v>
@@ -2222,13 +2192,13 @@
         <v>228974</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>387</v>
@@ -2237,13 +2207,13 @@
         <v>423319</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2258,13 +2228,13 @@
         <v>527783</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>542</v>
@@ -2273,13 +2243,13 @@
         <v>575252</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>1037</v>
@@ -2288,13 +2258,13 @@
         <v>1103035</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2350,7 +2320,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2362,13 +2332,13 @@
         <v>164255</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>198</v>
@@ -2377,13 +2347,13 @@
         <v>195609</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>352</v>
@@ -2392,13 +2362,13 @@
         <v>359864</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2413,13 +2383,13 @@
         <v>380834</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>397</v>
@@ -2428,13 +2398,13 @@
         <v>388019</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>758</v>
@@ -2443,13 +2413,13 @@
         <v>768853</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2505,7 +2475,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2517,13 +2487,13 @@
         <v>240408</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>241</v>
@@ -2532,13 +2502,13 @@
         <v>252000</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>495</v>
@@ -2547,13 +2517,13 @@
         <v>492408</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2568,13 +2538,13 @@
         <v>469280</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>539</v>
@@ -2583,13 +2553,13 @@
         <v>561068</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>1039</v>
@@ -2598,13 +2568,13 @@
         <v>1030347</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2672,13 +2642,13 @@
         <v>702443</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>774</v>
@@ -2687,13 +2657,13 @@
         <v>796886</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>1453</v>
@@ -2702,13 +2672,13 @@
         <v>1499329</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2723,13 +2693,13 @@
         <v>1752299</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>1902</v>
@@ -2738,28 +2708,28 @@
         <v>1941123</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>3630</v>
       </c>
       <c r="N20" s="7">
-        <v>3693422</v>
+        <v>3693421</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2801,7 +2771,7 @@
         <v>5083</v>
       </c>
       <c r="N21" s="7">
-        <v>5192751</v>
+        <v>5192750</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2815,7 +2785,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2836,7 +2806,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C994287-8915-4231-B259-DD24C84DFA4A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D47A490-0782-41EF-AEE7-272F6CEA16DA}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2853,7 +2823,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2960,13 +2930,13 @@
         <v>24473</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H4" s="7">
         <v>25</v>
@@ -2975,13 +2945,13 @@
         <v>27519</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M4" s="7">
         <v>50</v>
@@ -2990,13 +2960,13 @@
         <v>51992</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3011,13 +2981,13 @@
         <v>76281</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="H5" s="7">
         <v>57</v>
@@ -3026,13 +2996,13 @@
         <v>66299</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M5" s="7">
         <v>137</v>
@@ -3041,13 +3011,13 @@
         <v>142580</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3115,13 +3085,13 @@
         <v>108864</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>147</v>
+        <v>37</v>
       </c>
       <c r="H7" s="7">
         <v>143</v>
@@ -3130,13 +3100,13 @@
         <v>155016</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>37</v>
+        <v>146</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="M7" s="7">
         <v>249</v>
@@ -3145,13 +3115,13 @@
         <v>263880</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3166,13 +3136,13 @@
         <v>395285</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>154</v>
+        <v>44</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H8" s="7">
         <v>368</v>
@@ -3181,13 +3151,13 @@
         <v>387906</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>45</v>
+        <v>155</v>
       </c>
       <c r="M8" s="7">
         <v>737</v>
@@ -3196,13 +3166,13 @@
         <v>783191</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3258,7 +3228,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3270,13 +3240,13 @@
         <v>261371</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="H10" s="7">
         <v>218</v>
@@ -3285,13 +3255,13 @@
         <v>238073</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M10" s="7">
         <v>455</v>
@@ -3300,13 +3270,13 @@
         <v>499444</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3321,13 +3291,13 @@
         <v>604615</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="H11" s="7">
         <v>604</v>
@@ -3336,13 +3306,13 @@
         <v>661791</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M11" s="7">
         <v>1165</v>
@@ -3351,13 +3321,13 @@
         <v>1266406</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3413,7 +3383,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3425,13 +3395,13 @@
         <v>182132</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="H13" s="7">
         <v>207</v>
@@ -3440,13 +3410,13 @@
         <v>230692</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="M13" s="7">
         <v>376</v>
@@ -3455,13 +3425,13 @@
         <v>412824</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3476,13 +3446,13 @@
         <v>453901</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="H14" s="7">
         <v>408</v>
@@ -3491,13 +3461,13 @@
         <v>447805</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="M14" s="7">
         <v>821</v>
@@ -3506,13 +3476,13 @@
         <v>901706</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3568,7 +3538,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3580,13 +3550,13 @@
         <v>287022</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="H16" s="7">
         <v>320</v>
@@ -3595,13 +3565,13 @@
         <v>331835</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="M16" s="7">
         <v>597</v>
@@ -3610,13 +3580,13 @@
         <v>618857</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3631,13 +3601,13 @@
         <v>517662</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="H17" s="7">
         <v>567</v>
@@ -3646,13 +3616,13 @@
         <v>601366</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="M17" s="7">
         <v>1063</v>
@@ -3661,13 +3631,13 @@
         <v>1119028</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3735,13 +3705,13 @@
         <v>863862</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="H19" s="7">
         <v>913</v>
@@ -3750,13 +3720,13 @@
         <v>983135</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="M19" s="7">
         <v>1727</v>
@@ -3765,13 +3735,13 @@
         <v>1846997</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3786,13 +3756,13 @@
         <v>2047744</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="H20" s="7">
         <v>2004</v>
@@ -3801,13 +3771,13 @@
         <v>2165167</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="M20" s="7">
         <v>3923</v>
@@ -3816,13 +3786,13 @@
         <v>4212911</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3878,7 +3848,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -3899,7 +3869,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F484E60D-3215-4802-8A6E-C81904B4EE07}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2E27499-9ED8-4C17-9BDD-6B57CEAAE085}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3916,7 +3886,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4023,13 +3993,13 @@
         <v>28818</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="H4" s="7">
         <v>32</v>
@@ -4038,13 +4008,13 @@
         <v>31469</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="M4" s="7">
         <v>60</v>
@@ -4053,13 +4023,13 @@
         <v>60288</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4074,13 +4044,13 @@
         <v>69957</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="H5" s="7">
         <v>70</v>
@@ -4089,13 +4059,13 @@
         <v>69532</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="M5" s="7">
         <v>137</v>
@@ -4104,13 +4074,13 @@
         <v>139488</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4178,13 +4148,13 @@
         <v>119662</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="H7" s="7">
         <v>133</v>
@@ -4193,13 +4163,13 @@
         <v>133030</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="M7" s="7">
         <v>248</v>
@@ -4208,13 +4178,13 @@
         <v>252693</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4229,13 +4199,13 @@
         <v>306556</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="H8" s="7">
         <v>309</v>
@@ -4244,13 +4214,13 @@
         <v>310331</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="M8" s="7">
         <v>606</v>
@@ -4259,13 +4229,13 @@
         <v>616887</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4321,7 +4291,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4333,13 +4303,13 @@
         <v>302806</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>269</v>
+        <v>133</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="H10" s="7">
         <v>315</v>
@@ -4348,13 +4318,13 @@
         <v>330077</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="M10" s="7">
         <v>590</v>
@@ -4363,13 +4333,13 @@
         <v>632883</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4384,13 +4354,13 @@
         <v>513540</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>279</v>
+        <v>141</v>
       </c>
       <c r="H11" s="7">
         <v>503</v>
@@ -4399,13 +4369,13 @@
         <v>536296</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="M11" s="7">
         <v>982</v>
@@ -4414,13 +4384,13 @@
         <v>1049836</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4476,7 +4446,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4488,13 +4458,13 @@
         <v>183636</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="H13" s="7">
         <v>224</v>
@@ -4503,13 +4473,13 @@
         <v>233836</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="M13" s="7">
         <v>395</v>
@@ -4518,13 +4488,13 @@
         <v>417471</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4539,13 +4509,13 @@
         <v>366724</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H14" s="7">
         <v>328</v>
@@ -4554,13 +4524,13 @@
         <v>345902</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="M14" s="7">
         <v>658</v>
@@ -4569,13 +4539,13 @@
         <v>712627</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4631,7 +4601,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4643,13 +4613,13 @@
         <v>293529</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>184</v>
+        <v>300</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="H16" s="7">
         <v>318</v>
@@ -4658,13 +4628,13 @@
         <v>337860</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>275</v>
+        <v>304</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="M16" s="7">
         <v>613</v>
@@ -4673,13 +4643,13 @@
         <v>631389</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>309</v>
+        <v>195</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4694,13 +4664,13 @@
         <v>479106</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>192</v>
+        <v>308</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H17" s="7">
         <v>495</v>
@@ -4709,13 +4679,13 @@
         <v>538981</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>285</v>
       </c>
       <c r="M17" s="7">
         <v>968</v>
@@ -4724,13 +4694,13 @@
         <v>1018087</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="P17" s="7" t="s">
-        <v>316</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>317</v>
+        <v>204</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4798,13 +4768,13 @@
         <v>928451</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>78</v>
+        <v>316</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>318</v>
+        <v>147</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="H19" s="7">
         <v>1022</v>
@@ -4813,13 +4783,13 @@
         <v>1066273</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>322</v>
       </c>
       <c r="M19" s="7">
         <v>1906</v>
@@ -4828,13 +4798,13 @@
         <v>1994724</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4849,13 +4819,13 @@
         <v>1735883</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>86</v>
+        <v>324</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>327</v>
+        <v>154</v>
       </c>
       <c r="H20" s="7">
         <v>1705</v>
@@ -4864,28 +4834,28 @@
         <v>1801042</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>330</v>
       </c>
       <c r="M20" s="7">
         <v>3351</v>
       </c>
       <c r="N20" s="7">
-        <v>3536924</v>
+        <v>3536925</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4927,7 +4897,7 @@
         <v>5257</v>
       </c>
       <c r="N21" s="7">
-        <v>5531648</v>
+        <v>5531649</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -4941,7 +4911,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -4962,7 +4932,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC7D4401-26CE-4E02-BDAB-CD781B9B489F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADEB2BCC-FE05-468F-AFB8-56ADC6AF8184}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4979,7 +4949,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5086,13 +5056,13 @@
         <v>41997</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>336</v>
+        <v>215</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="H4" s="7">
         <v>102</v>
@@ -5101,13 +5071,13 @@
         <v>54124</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="M4" s="7">
         <v>146</v>
@@ -5116,13 +5086,13 @@
         <v>96122</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5137,13 +5107,13 @@
         <v>58477</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>346</v>
+        <v>223</v>
       </c>
       <c r="H5" s="7">
         <v>136</v>
@@ -5152,13 +5122,13 @@
         <v>74162</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="M5" s="7">
         <v>207</v>
@@ -5167,13 +5137,13 @@
         <v>132638</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5241,13 +5211,13 @@
         <v>226774</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="H7" s="7">
         <v>467</v>
@@ -5256,13 +5226,13 @@
         <v>287285</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="M7" s="7">
         <v>701</v>
@@ -5271,13 +5241,13 @@
         <v>514060</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5292,13 +5262,13 @@
         <v>299375</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="H8" s="7">
         <v>492</v>
@@ -5307,13 +5277,13 @@
         <v>282212</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="M8" s="7">
         <v>839</v>
@@ -5322,13 +5292,13 @@
         <v>581586</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5384,7 +5354,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5396,13 +5366,13 @@
         <v>499323</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="H10" s="7">
         <v>769</v>
@@ -5411,13 +5381,13 @@
         <v>548267</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="M10" s="7">
         <v>1213</v>
@@ -5426,13 +5396,13 @@
         <v>1047590</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5447,13 +5417,13 @@
         <v>516046</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="H11" s="7">
         <v>717</v>
@@ -5462,13 +5432,13 @@
         <v>493833</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="M11" s="7">
         <v>1209</v>
@@ -5477,13 +5447,13 @@
         <v>1009879</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>387</v>
+        <v>353</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5539,7 +5509,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5551,13 +5521,13 @@
         <v>313517</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="H13" s="7">
         <v>445</v>
@@ -5566,13 +5536,13 @@
         <v>424064</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="M13" s="7">
         <v>731</v>
@@ -5581,13 +5551,13 @@
         <v>737581</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5602,13 +5572,13 @@
         <v>395024</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="H14" s="7">
         <v>579</v>
@@ -5617,13 +5587,13 @@
         <v>438124</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="M14" s="7">
         <v>948</v>
@@ -5632,13 +5602,13 @@
         <v>833149</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5694,7 +5664,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5706,13 +5676,13 @@
         <v>453324</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="H16" s="7">
         <v>735</v>
@@ -5721,13 +5691,13 @@
         <v>547207</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="M16" s="7">
         <v>1200</v>
@@ -5736,13 +5706,13 @@
         <v>1000532</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5757,13 +5727,13 @@
         <v>473054</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="H17" s="7">
         <v>775</v>
@@ -5772,13 +5742,13 @@
         <v>567569</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="M17" s="7">
         <v>1276</v>
@@ -5787,13 +5757,13 @@
         <v>1040622</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5858,16 +5828,16 @@
         <v>1473</v>
       </c>
       <c r="D19" s="7">
-        <v>1534936</v>
+        <v>1534937</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>424</v>
+        <v>383</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="H19" s="7">
         <v>2518</v>
@@ -5876,13 +5846,13 @@
         <v>1860948</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="M19" s="7">
         <v>3991</v>
@@ -5891,13 +5861,13 @@
         <v>3395885</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>429</v>
+        <v>385</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5912,13 +5882,13 @@
         <v>1741975</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>434</v>
+        <v>391</v>
       </c>
       <c r="H20" s="7">
         <v>2699</v>
@@ -5927,13 +5897,13 @@
         <v>1855900</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="M20" s="7">
         <v>4479</v>
@@ -5942,13 +5912,13 @@
         <v>3597875</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>438</v>
+        <v>392</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5960,7 +5930,7 @@
         <v>3253</v>
       </c>
       <c r="D21" s="7">
-        <v>3276911</v>
+        <v>3276912</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -6004,7 +5974,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P19C02-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P19C02-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D3CEDA7-F953-4E37-A351-D0E3A5D23038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C42EC40A-867E-4FD3-95D0-2AFF50A53FFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C4F60DD7-7732-43A3-9022-BFD16EB38740}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{DCF6088D-D273-40E5-9F37-D31C3365BFF6}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="370">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue una limpieza de boca en 2007 (Tasa respuesta: 78,07%)</t>
   </si>
@@ -68,123 +68,72 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>79,76%</t>
-  </si>
-  <si>
-    <t>69,31%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>72,07%</t>
-  </si>
-  <si>
-    <t>63,77%</t>
-  </si>
-  <si>
-    <t>79,84%</t>
-  </si>
-  <si>
-    <t>75,54%</t>
-  </si>
-  <si>
-    <t>68,89%</t>
-  </si>
-  <si>
-    <t>81,36%</t>
+    <t>78,35%</t>
+  </si>
+  <si>
+    <t>74,65%</t>
+  </si>
+  <si>
+    <t>82,18%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
+  </si>
+  <si>
+    <t>73,82%</t>
+  </si>
+  <si>
+    <t>80,74%</t>
+  </si>
+  <si>
+    <t>77,96%</t>
+  </si>
+  <si>
+    <t>75,25%</t>
+  </si>
+  <si>
+    <t>80,22%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>78,08%</t>
-  </si>
-  <si>
-    <t>74,06%</t>
-  </si>
-  <si>
-    <t>82,35%</t>
-  </si>
-  <si>
-    <t>78,78%</t>
-  </si>
-  <si>
-    <t>74,73%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>78,45%</t>
-  </si>
-  <si>
-    <t>75,67%</t>
-  </si>
-  <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
@@ -242,7 +191,7 @@
     <t>74,54%</t>
   </si>
   <si>
-    <t>&gt;50.000hab</t>
+    <t>&gt;50.000 hab</t>
   </si>
   <si>
     <t>30,13%</t>
@@ -416,609 +365,507 @@
     <t>Población según si el motivo por su última visita al dentista fue una limpieza de boca en 2012 (Tasa respuesta: 86,83%)</t>
   </si>
   <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>40,54%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>74,68%</t>
+  </si>
+  <si>
+    <t>81,57%</t>
+  </si>
+  <si>
+    <t>71,33%</t>
+  </si>
+  <si>
+    <t>67,53%</t>
+  </si>
+  <si>
+    <t>75,14%</t>
+  </si>
+  <si>
+    <t>74,56%</t>
+  </si>
+  <si>
+    <t>71,99%</t>
+  </si>
+  <si>
+    <t>76,96%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>69,82%</t>
+  </si>
+  <si>
+    <t>66,36%</t>
+  </si>
+  <si>
+    <t>72,7%</t>
+  </si>
+  <si>
+    <t>73,54%</t>
+  </si>
+  <si>
+    <t>70,29%</t>
+  </si>
+  <si>
+    <t>76,39%</t>
+  </si>
+  <si>
+    <t>71,72%</t>
+  </si>
+  <si>
+    <t>69,39%</t>
+  </si>
+  <si>
+    <t>73,66%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>37,97%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>34,34%</t>
+  </si>
+  <si>
+    <t>71,36%</t>
+  </si>
+  <si>
+    <t>67,31%</t>
+  </si>
+  <si>
+    <t>74,94%</t>
+  </si>
+  <si>
+    <t>66,0%</t>
+  </si>
+  <si>
+    <t>62,03%</t>
+  </si>
+  <si>
+    <t>69,64%</t>
+  </si>
+  <si>
+    <t>68,6%</t>
+  </si>
+  <si>
+    <t>65,66%</t>
+  </si>
+  <si>
+    <t>71,22%</t>
+  </si>
+  <si>
+    <t>35,67%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>39,39%</t>
+  </si>
+  <si>
+    <t>35,56%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
+  </si>
+  <si>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>37,94%</t>
+  </si>
+  <si>
+    <t>64,33%</t>
+  </si>
+  <si>
+    <t>60,61%</t>
+  </si>
+  <si>
+    <t>67,34%</t>
+  </si>
+  <si>
+    <t>64,44%</t>
+  </si>
+  <si>
+    <t>61,15%</t>
+  </si>
+  <si>
+    <t>67,65%</t>
+  </si>
+  <si>
+    <t>64,39%</t>
+  </si>
+  <si>
+    <t>62,06%</t>
+  </si>
+  <si>
+    <t>66,72%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>70,33%</t>
+  </si>
+  <si>
+    <t>68,55%</t>
+  </si>
+  <si>
+    <t>72,17%</t>
+  </si>
+  <si>
+    <t>68,77%</t>
+  </si>
+  <si>
+    <t>67,08%</t>
+  </si>
+  <si>
+    <t>70,6%</t>
+  </si>
+  <si>
+    <t>69,52%</t>
+  </si>
+  <si>
+    <t>68,27%</t>
+  </si>
+  <si>
+    <t>70,66%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue una limpieza de boca en 2016 (Tasa respuesta: 80,03%)</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>67,46%</t>
+  </si>
+  <si>
+    <t>75,51%</t>
+  </si>
+  <si>
+    <t>69,78%</t>
+  </si>
+  <si>
+    <t>65,81%</t>
+  </si>
+  <si>
+    <t>73,72%</t>
+  </si>
+  <si>
+    <t>70,73%</t>
+  </si>
+  <si>
+    <t>68,13%</t>
+  </si>
+  <si>
+    <t>73,57%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
   </si>
   <si>
     <t>33,25%</t>
   </si>
   <si>
-    <t>75,71%</t>
-  </si>
-  <si>
-    <t>65,77%</t>
-  </si>
-  <si>
-    <t>82,94%</t>
-  </si>
-  <si>
-    <t>70,67%</t>
-  </si>
-  <si>
-    <t>59,46%</t>
-  </si>
-  <si>
-    <t>79,28%</t>
-  </si>
-  <si>
-    <t>73,28%</t>
+    <t>40,62%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>41,87%</t>
+  </si>
+  <si>
+    <t>37,61%</t>
+  </si>
+  <si>
+    <t>35,08%</t>
+  </si>
+  <si>
+    <t>40,1%</t>
+  </si>
+  <si>
+    <t>62,91%</t>
+  </si>
+  <si>
+    <t>59,38%</t>
   </si>
   <si>
     <t>66,75%</t>
   </si>
   <si>
-    <t>79,33%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
+    <t>61,9%</t>
+  </si>
+  <si>
+    <t>58,13%</t>
+  </si>
+  <si>
+    <t>65,01%</t>
+  </si>
+  <si>
+    <t>62,39%</t>
+  </si>
+  <si>
+    <t>59,9%</t>
+  </si>
+  <si>
+    <t>64,92%</t>
+  </si>
+  <si>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>37,35%</t>
+  </si>
+  <si>
+    <t>40,33%</t>
+  </si>
+  <si>
+    <t>36,01%</t>
+  </si>
+  <si>
+    <t>44,38%</t>
+  </si>
+  <si>
+    <t>36,94%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>39,78%</t>
+  </si>
+  <si>
+    <t>66,63%</t>
+  </si>
+  <si>
+    <t>62,65%</t>
+  </si>
+  <si>
+    <t>59,67%</t>
+  </si>
+  <si>
+    <t>55,62%</t>
+  </si>
+  <si>
+    <t>63,99%</t>
+  </si>
+  <si>
+    <t>63,06%</t>
+  </si>
+  <si>
+    <t>60,22%</t>
+  </si>
+  <si>
+    <t>65,82%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>41,59%</t>
+  </si>
+  <si>
+    <t>38,53%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
+  </si>
+  <si>
+    <t>41,75%</t>
+  </si>
+  <si>
+    <t>38,28%</t>
+  </si>
+  <si>
+    <t>40,75%</t>
+  </si>
+  <si>
+    <t>62,01%</t>
+  </si>
+  <si>
+    <t>58,41%</t>
+  </si>
+  <si>
+    <t>65,51%</t>
+  </si>
+  <si>
+    <t>61,47%</t>
+  </si>
+  <si>
+    <t>58,25%</t>
+  </si>
+  <si>
+    <t>64,79%</t>
+  </si>
+  <si>
+    <t>61,72%</t>
+  </si>
+  <si>
+    <t>59,25%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
   </si>
   <si>
     <t>32,97%</t>
   </si>
   <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>78,41%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>71,45%</t>
+    <t>36,78%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>39,0%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>34,79%</t>
+  </si>
+  <si>
+    <t>37,42%</t>
+  </si>
+  <si>
+    <t>65,15%</t>
+  </si>
+  <si>
+    <t>63,22%</t>
   </si>
   <si>
     <t>67,03%</t>
   </si>
   <si>
-    <t>75,35%</t>
-  </si>
-  <si>
-    <t>74,8%</t>
-  </si>
-  <si>
-    <t>72,0%</t>
-  </si>
-  <si>
-    <t>77,65%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>69,82%</t>
-  </si>
-  <si>
-    <t>66,36%</t>
-  </si>
-  <si>
-    <t>72,7%</t>
-  </si>
-  <si>
-    <t>73,54%</t>
-  </si>
-  <si>
-    <t>70,29%</t>
-  </si>
-  <si>
-    <t>76,39%</t>
-  </si>
-  <si>
-    <t>71,72%</t>
-  </si>
-  <si>
-    <t>69,39%</t>
-  </si>
-  <si>
-    <t>73,66%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>37,97%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>34,34%</t>
-  </si>
-  <si>
-    <t>71,36%</t>
-  </si>
-  <si>
-    <t>67,31%</t>
-  </si>
-  <si>
-    <t>74,94%</t>
-  </si>
-  <si>
-    <t>66,0%</t>
-  </si>
-  <si>
-    <t>62,03%</t>
-  </si>
-  <si>
-    <t>69,64%</t>
-  </si>
-  <si>
-    <t>68,6%</t>
-  </si>
-  <si>
-    <t>65,66%</t>
-  </si>
-  <si>
-    <t>71,22%</t>
-  </si>
-  <si>
-    <t>35,67%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>39,39%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
-  </si>
-  <si>
-    <t>35,61%</t>
-  </si>
-  <si>
-    <t>33,28%</t>
-  </si>
-  <si>
-    <t>37,94%</t>
-  </si>
-  <si>
-    <t>64,33%</t>
-  </si>
-  <si>
-    <t>60,61%</t>
-  </si>
-  <si>
-    <t>67,34%</t>
-  </si>
-  <si>
-    <t>64,44%</t>
-  </si>
-  <si>
-    <t>61,15%</t>
-  </si>
-  <si>
-    <t>67,65%</t>
-  </si>
-  <si>
-    <t>64,39%</t>
-  </si>
-  <si>
-    <t>62,06%</t>
-  </si>
-  <si>
-    <t>66,72%</t>
-  </si>
-  <si>
-    <t>29,67%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>32,92%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>70,33%</t>
-  </si>
-  <si>
-    <t>68,55%</t>
-  </si>
-  <si>
-    <t>72,17%</t>
-  </si>
-  <si>
-    <t>68,77%</t>
-  </si>
-  <si>
-    <t>67,08%</t>
-  </si>
-  <si>
-    <t>70,6%</t>
-  </si>
-  <si>
-    <t>69,52%</t>
-  </si>
-  <si>
-    <t>68,27%</t>
-  </si>
-  <si>
-    <t>70,66%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue una limpieza de boca en 2016 (Tasa respuesta: 80,03%)</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>38,81%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>36,46%</t>
-  </si>
-  <si>
-    <t>70,82%</t>
-  </si>
-  <si>
-    <t>61,19%</t>
-  </si>
-  <si>
-    <t>79,01%</t>
-  </si>
-  <si>
-    <t>68,84%</t>
-  </si>
-  <si>
-    <t>59,71%</t>
-  </si>
-  <si>
-    <t>77,55%</t>
-  </si>
-  <si>
-    <t>63,54%</t>
-  </si>
-  <si>
-    <t>76,38%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>71,92%</t>
-  </si>
-  <si>
-    <t>66,89%</t>
-  </si>
-  <si>
-    <t>76,37%</t>
-  </si>
-  <si>
-    <t>70,0%</t>
-  </si>
-  <si>
-    <t>65,59%</t>
-  </si>
-  <si>
-    <t>74,11%</t>
-  </si>
-  <si>
-    <t>70,94%</t>
-  </si>
-  <si>
-    <t>67,61%</t>
-  </si>
-  <si>
-    <t>73,99%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
-  </si>
-  <si>
-    <t>40,62%</t>
-  </si>
-  <si>
-    <t>38,1%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>41,87%</t>
-  </si>
-  <si>
-    <t>37,61%</t>
-  </si>
-  <si>
-    <t>35,08%</t>
-  </si>
-  <si>
-    <t>40,1%</t>
-  </si>
-  <si>
-    <t>62,91%</t>
-  </si>
-  <si>
-    <t>59,38%</t>
-  </si>
-  <si>
-    <t>61,9%</t>
-  </si>
-  <si>
-    <t>58,13%</t>
-  </si>
-  <si>
-    <t>65,01%</t>
-  </si>
-  <si>
-    <t>62,39%</t>
-  </si>
-  <si>
-    <t>59,9%</t>
-  </si>
-  <si>
-    <t>64,92%</t>
-  </si>
-  <si>
-    <t>33,37%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>37,35%</t>
-  </si>
-  <si>
-    <t>40,33%</t>
-  </si>
-  <si>
-    <t>36,01%</t>
-  </si>
-  <si>
-    <t>44,38%</t>
-  </si>
-  <si>
-    <t>36,94%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>66,63%</t>
-  </si>
-  <si>
-    <t>62,65%</t>
-  </si>
-  <si>
-    <t>71,33%</t>
-  </si>
-  <si>
-    <t>59,67%</t>
-  </si>
-  <si>
-    <t>55,62%</t>
-  </si>
-  <si>
-    <t>63,99%</t>
-  </si>
-  <si>
-    <t>63,06%</t>
-  </si>
-  <si>
-    <t>60,22%</t>
-  </si>
-  <si>
-    <t>65,82%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>41,59%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>35,21%</t>
-  </si>
-  <si>
-    <t>41,75%</t>
-  </si>
-  <si>
-    <t>38,28%</t>
-  </si>
-  <si>
-    <t>40,75%</t>
-  </si>
-  <si>
-    <t>62,01%</t>
-  </si>
-  <si>
-    <t>58,41%</t>
-  </si>
-  <si>
-    <t>65,51%</t>
-  </si>
-  <si>
-    <t>61,47%</t>
-  </si>
-  <si>
-    <t>58,25%</t>
-  </si>
-  <si>
-    <t>64,79%</t>
-  </si>
-  <si>
-    <t>61,72%</t>
-  </si>
-  <si>
-    <t>59,25%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>36,78%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>39,0%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>34,79%</t>
-  </si>
-  <si>
-    <t>37,42%</t>
-  </si>
-  <si>
-    <t>65,15%</t>
-  </si>
-  <si>
-    <t>63,22%</t>
-  </si>
-  <si>
     <t>62,81%</t>
   </si>
   <si>
@@ -1040,298 +887,268 @@
     <t>Población según si el motivo por su última visita al dentista fue una limpieza de boca en 2023 (Tasa respuesta: 96,88%)</t>
   </si>
   <si>
-    <t>41,8%</t>
-  </si>
-  <si>
-    <t>52,42%</t>
-  </si>
-  <si>
-    <t>42,19%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>49,15%</t>
-  </si>
-  <si>
-    <t>42,02%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>48,38%</t>
-  </si>
-  <si>
-    <t>58,2%</t>
-  </si>
-  <si>
-    <t>47,58%</t>
-  </si>
-  <si>
-    <t>57,81%</t>
-  </si>
-  <si>
-    <t>50,85%</t>
-  </si>
-  <si>
-    <t>64,84%</t>
-  </si>
-  <si>
-    <t>57,98%</t>
-  </si>
-  <si>
-    <t>51,62%</t>
-  </si>
-  <si>
-    <t>63,51%</t>
-  </si>
-  <si>
-    <t>43,1%</t>
-  </si>
-  <si>
-    <t>38,86%</t>
-  </si>
-  <si>
-    <t>47,87%</t>
-  </si>
-  <si>
-    <t>50,45%</t>
-  </si>
-  <si>
-    <t>46,7%</t>
+    <t>41,82%</t>
+  </si>
+  <si>
+    <t>37,21%</t>
+  </si>
+  <si>
+    <t>46,15%</t>
+  </si>
+  <si>
+    <t>48,19%</t>
+  </si>
+  <si>
+    <t>45,15%</t>
+  </si>
+  <si>
+    <t>51,27%</t>
+  </si>
+  <si>
+    <t>45,11%</t>
+  </si>
+  <si>
+    <t>42,49%</t>
+  </si>
+  <si>
+    <t>47,92%</t>
+  </si>
+  <si>
+    <t>58,18%</t>
   </si>
   <si>
     <t>53,85%</t>
   </si>
   <si>
-    <t>46,92%</t>
-  </si>
-  <si>
-    <t>43,87%</t>
-  </si>
-  <si>
-    <t>49,54%</t>
-  </si>
-  <si>
-    <t>56,9%</t>
-  </si>
-  <si>
-    <t>52,13%</t>
-  </si>
-  <si>
-    <t>61,14%</t>
-  </si>
-  <si>
-    <t>49,55%</t>
-  </si>
-  <si>
-    <t>46,15%</t>
-  </si>
-  <si>
-    <t>53,3%</t>
-  </si>
-  <si>
-    <t>53,08%</t>
-  </si>
-  <si>
-    <t>50,46%</t>
-  </si>
-  <si>
-    <t>56,13%</t>
-  </si>
-  <si>
-    <t>49,18%</t>
-  </si>
-  <si>
-    <t>40,64%</t>
-  </si>
-  <si>
-    <t>53,49%</t>
+    <t>62,79%</t>
+  </si>
+  <si>
+    <t>51,81%</t>
+  </si>
+  <si>
+    <t>48,73%</t>
+  </si>
+  <si>
+    <t>54,85%</t>
+  </si>
+  <si>
+    <t>54,89%</t>
+  </si>
+  <si>
+    <t>52,08%</t>
+  </si>
+  <si>
+    <t>57,51%</t>
+  </si>
+  <si>
+    <t>40,09%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>52,04%</t>
+  </si>
+  <si>
+    <t>51,63%</t>
+  </si>
+  <si>
+    <t>48,64%</t>
+  </si>
+  <si>
+    <t>54,24%</t>
+  </si>
+  <si>
+    <t>45,25%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>51,77%</t>
+  </si>
+  <si>
+    <t>59,91%</t>
+  </si>
+  <si>
+    <t>47,96%</t>
+  </si>
+  <si>
+    <t>79,44%</t>
+  </si>
+  <si>
+    <t>48,37%</t>
+  </si>
+  <si>
+    <t>45,76%</t>
+  </si>
+  <si>
+    <t>51,36%</t>
+  </si>
+  <si>
+    <t>54,75%</t>
+  </si>
+  <si>
+    <t>48,23%</t>
+  </si>
+  <si>
+    <t>71,1%</t>
+  </si>
+  <si>
+    <t>43,99%</t>
+  </si>
+  <si>
+    <t>39,76%</t>
+  </si>
+  <si>
+    <t>48,42%</t>
+  </si>
+  <si>
+    <t>53,33%</t>
+  </si>
+  <si>
+    <t>38,46%</t>
+  </si>
+  <si>
+    <t>75,99%</t>
+  </si>
+  <si>
+    <t>49,34%</t>
+  </si>
+  <si>
+    <t>40,9%</t>
+  </si>
+  <si>
+    <t>56,01%</t>
+  </si>
+  <si>
+    <t>51,58%</t>
+  </si>
+  <si>
+    <t>60,24%</t>
+  </si>
+  <si>
+    <t>46,67%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>61,54%</t>
+  </si>
+  <si>
+    <t>50,66%</t>
+  </si>
+  <si>
+    <t>59,1%</t>
+  </si>
+  <si>
+    <t>48,94%</t>
+  </si>
+  <si>
+    <t>45,32%</t>
+  </si>
+  <si>
+    <t>52,47%</t>
+  </si>
+  <si>
+    <t>46,09%</t>
+  </si>
+  <si>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>50,72%</t>
+  </si>
+  <si>
+    <t>47,39%</t>
+  </si>
+  <si>
+    <t>41,69%</t>
+  </si>
+  <si>
+    <t>50,21%</t>
+  </si>
+  <si>
+    <t>51,06%</t>
+  </si>
+  <si>
+    <t>47,53%</t>
+  </si>
+  <si>
+    <t>54,68%</t>
+  </si>
+  <si>
+    <t>53,91%</t>
+  </si>
+  <si>
+    <t>49,28%</t>
+  </si>
+  <si>
+    <t>63,16%</t>
   </si>
   <si>
     <t>52,61%</t>
   </si>
   <si>
-    <t>49,49%</t>
-  </si>
-  <si>
-    <t>55,21%</t>
-  </si>
-  <si>
-    <t>50,92%</t>
-  </si>
-  <si>
-    <t>46,33%</t>
-  </si>
-  <si>
-    <t>50,82%</t>
-  </si>
-  <si>
-    <t>46,51%</t>
-  </si>
-  <si>
-    <t>59,36%</t>
-  </si>
-  <si>
-    <t>47,39%</t>
-  </si>
-  <si>
-    <t>44,79%</t>
-  </si>
-  <si>
-    <t>50,51%</t>
-  </si>
-  <si>
-    <t>49,08%</t>
-  </si>
-  <si>
-    <t>53,67%</t>
-  </si>
-  <si>
-    <t>44,25%</t>
-  </si>
-  <si>
-    <t>40,06%</t>
-  </si>
-  <si>
-    <t>48,56%</t>
-  </si>
-  <si>
-    <t>40,71%</t>
-  </si>
-  <si>
-    <t>67,2%</t>
-  </si>
-  <si>
-    <t>46,96%</t>
-  </si>
-  <si>
-    <t>41,94%</t>
-  </si>
-  <si>
-    <t>61,02%</t>
-  </si>
-  <si>
-    <t>55,75%</t>
-  </si>
-  <si>
-    <t>51,44%</t>
-  </si>
-  <si>
-    <t>59,94%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>59,29%</t>
-  </si>
-  <si>
-    <t>53,04%</t>
-  </si>
-  <si>
-    <t>38,98%</t>
-  </si>
-  <si>
-    <t>58,06%</t>
-  </si>
-  <si>
-    <t>48,94%</t>
-  </si>
-  <si>
-    <t>45,43%</t>
-  </si>
-  <si>
-    <t>52,56%</t>
-  </si>
-  <si>
-    <t>49,09%</t>
-  </si>
-  <si>
-    <t>45,73%</t>
-  </si>
-  <si>
-    <t>52,09%</t>
-  </si>
-  <si>
-    <t>49,02%</t>
-  </si>
-  <si>
-    <t>46,77%</t>
-  </si>
-  <si>
-    <t>51,38%</t>
-  </si>
-  <si>
-    <t>51,06%</t>
-  </si>
-  <si>
-    <t>47,44%</t>
-  </si>
-  <si>
-    <t>54,57%</t>
-  </si>
-  <si>
-    <t>50,91%</t>
-  </si>
-  <si>
-    <t>47,91%</t>
-  </si>
-  <si>
-    <t>54,27%</t>
-  </si>
-  <si>
-    <t>50,98%</t>
-  </si>
-  <si>
-    <t>48,62%</t>
-  </si>
-  <si>
-    <t>53,23%</t>
-  </si>
-  <si>
-    <t>46,84%</t>
-  </si>
-  <si>
-    <t>49,01%</t>
-  </si>
-  <si>
-    <t>50,07%</t>
-  </si>
-  <si>
-    <t>47,89%</t>
-  </si>
-  <si>
-    <t>55,32%</t>
-  </si>
-  <si>
-    <t>46,85%</t>
-  </si>
-  <si>
-    <t>51,51%</t>
-  </si>
-  <si>
-    <t>53,16%</t>
-  </si>
-  <si>
-    <t>50,99%</t>
-  </si>
-  <si>
-    <t>49,93%</t>
-  </si>
-  <si>
-    <t>44,68%</t>
-  </si>
-  <si>
-    <t>52,11%</t>
-  </si>
-  <si>
-    <t>48,49%</t>
-  </si>
-  <si>
-    <t>53,15%</t>
+    <t>49,79%</t>
+  </si>
+  <si>
+    <t>58,31%</t>
+  </si>
+  <si>
+    <t>43,55%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>47,75%</t>
+  </si>
+  <si>
+    <t>49,8%</t>
+  </si>
+  <si>
+    <t>45,72%</t>
+  </si>
+  <si>
+    <t>59,35%</t>
+  </si>
+  <si>
+    <t>46,78%</t>
+  </si>
+  <si>
+    <t>41,74%</t>
+  </si>
+  <si>
+    <t>51,02%</t>
+  </si>
+  <si>
+    <t>56,45%</t>
+  </si>
+  <si>
+    <t>52,25%</t>
+  </si>
+  <si>
+    <t>66,52%</t>
+  </si>
+  <si>
+    <t>50,2%</t>
+  </si>
+  <si>
+    <t>40,65%</t>
+  </si>
+  <si>
+    <t>54,28%</t>
+  </si>
+  <si>
+    <t>53,22%</t>
+  </si>
+  <si>
+    <t>48,98%</t>
+  </si>
+  <si>
+    <t>58,26%</t>
   </si>
 </sst>
 </file>
@@ -1743,8 +1560,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99A1E77E-A99C-43CD-BC13-830792D0EBA3}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9FB343E-12C3-43F1-B00A-BE5BB1B0EEBE}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1861,10 +1678,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>14</v>
+        <v>98</v>
       </c>
       <c r="D4" s="7">
-        <v>15736</v>
+        <v>103434</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1876,10 +1693,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>29</v>
+        <v>121</v>
       </c>
       <c r="I4" s="7">
-        <v>26460</v>
+        <v>120303</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1891,10 +1708,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>43</v>
+        <v>219</v>
       </c>
       <c r="N4" s="7">
-        <v>42197</v>
+        <v>223737</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1912,10 +1729,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>56</v>
+        <v>372</v>
       </c>
       <c r="D5" s="7">
-        <v>62029</v>
+        <v>374403</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1927,10 +1744,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>78</v>
+        <v>424</v>
       </c>
       <c r="I5" s="7">
-        <v>68288</v>
+        <v>416784</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1942,10 +1759,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>134</v>
+        <v>796</v>
       </c>
       <c r="N5" s="7">
-        <v>130317</v>
+        <v>791187</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1963,10 +1780,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>70</v>
+        <v>470</v>
       </c>
       <c r="D6" s="7">
-        <v>77765</v>
+        <v>477837</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1978,10 +1795,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>107</v>
+        <v>545</v>
       </c>
       <c r="I6" s="7">
-        <v>94748</v>
+        <v>537087</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1993,10 +1810,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>177</v>
+        <v>1015</v>
       </c>
       <c r="N6" s="7">
-        <v>172514</v>
+        <v>1014924</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2016,10 +1833,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>84</v>
+        <v>173</v>
       </c>
       <c r="D7" s="7">
-        <v>87697</v>
+        <v>194345</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -2031,10 +1848,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>92</v>
+        <v>214</v>
       </c>
       <c r="I7" s="7">
-        <v>93843</v>
+        <v>228974</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -2046,19 +1863,19 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>176</v>
+        <v>387</v>
       </c>
       <c r="N7" s="7">
-        <v>181540</v>
+        <v>423319</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2067,49 +1884,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>316</v>
+        <v>495</v>
       </c>
       <c r="D8" s="7">
-        <v>312375</v>
+        <v>527783</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>346</v>
+        <v>542</v>
       </c>
       <c r="I8" s="7">
-        <v>348496</v>
+        <v>575252</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>662</v>
+        <v>1037</v>
       </c>
       <c r="N8" s="7">
-        <v>660870</v>
+        <v>1103035</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2118,10 +1935,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>400</v>
+        <v>668</v>
       </c>
       <c r="D9" s="7">
-        <v>400072</v>
+        <v>722128</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2133,10 +1950,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>438</v>
+        <v>756</v>
       </c>
       <c r="I9" s="7">
-        <v>442339</v>
+        <v>804226</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2148,10 +1965,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>838</v>
+        <v>1424</v>
       </c>
       <c r="N9" s="7">
-        <v>842410</v>
+        <v>1526354</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2165,55 +1982,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="D10" s="7">
-        <v>194345</v>
+        <v>164255</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="I10" s="7">
-        <v>228974</v>
+        <v>195609</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>387</v>
+        <v>352</v>
       </c>
       <c r="N10" s="7">
-        <v>423319</v>
+        <v>359864</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2222,49 +2039,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>495</v>
+        <v>361</v>
       </c>
       <c r="D11" s="7">
-        <v>527783</v>
+        <v>380834</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>542</v>
+        <v>397</v>
       </c>
       <c r="I11" s="7">
-        <v>575252</v>
+        <v>388019</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>1037</v>
+        <v>758</v>
       </c>
       <c r="N11" s="7">
-        <v>1103035</v>
+        <v>768853</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2273,10 +2090,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>668</v>
+        <v>515</v>
       </c>
       <c r="D12" s="7">
-        <v>722128</v>
+        <v>545089</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2288,10 +2105,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>756</v>
+        <v>595</v>
       </c>
       <c r="I12" s="7">
-        <v>804226</v>
+        <v>583628</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2303,10 +2120,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1424</v>
+        <v>1110</v>
       </c>
       <c r="N12" s="7">
-        <v>1526354</v>
+        <v>1128717</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2320,55 +2137,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>154</v>
+        <v>254</v>
       </c>
       <c r="D13" s="7">
-        <v>164255</v>
+        <v>240408</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>198</v>
+        <v>241</v>
       </c>
       <c r="I13" s="7">
-        <v>195609</v>
+        <v>251999</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>352</v>
+        <v>495</v>
       </c>
       <c r="N13" s="7">
-        <v>359864</v>
+        <v>492408</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2377,49 +2194,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>361</v>
+        <v>500</v>
       </c>
       <c r="D14" s="7">
-        <v>380834</v>
+        <v>469280</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>397</v>
+        <v>539</v>
       </c>
       <c r="I14" s="7">
-        <v>388019</v>
+        <v>561068</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>758</v>
+        <v>1039</v>
       </c>
       <c r="N14" s="7">
-        <v>768853</v>
+        <v>1030347</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2428,10 +2245,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>515</v>
+        <v>754</v>
       </c>
       <c r="D15" s="7">
-        <v>545089</v>
+        <v>709688</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2443,10 +2260,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>595</v>
+        <v>780</v>
       </c>
       <c r="I15" s="7">
-        <v>583628</v>
+        <v>813067</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2458,10 +2275,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1110</v>
+        <v>1534</v>
       </c>
       <c r="N15" s="7">
-        <v>1128717</v>
+        <v>1522755</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2475,55 +2292,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>254</v>
+        <v>679</v>
       </c>
       <c r="D16" s="7">
-        <v>240408</v>
+        <v>702443</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H16" s="7">
-        <v>241</v>
+        <v>774</v>
       </c>
       <c r="I16" s="7">
-        <v>252000</v>
+        <v>796886</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M16" s="7">
-        <v>495</v>
+        <v>1453</v>
       </c>
       <c r="N16" s="7">
-        <v>492408</v>
+        <v>1499329</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2532,49 +2349,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>500</v>
+        <v>1728</v>
       </c>
       <c r="D17" s="7">
-        <v>469280</v>
+        <v>1752299</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H17" s="7">
-        <v>539</v>
+        <v>1902</v>
       </c>
       <c r="I17" s="7">
-        <v>561068</v>
+        <v>1941123</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M17" s="7">
-        <v>1039</v>
+        <v>3630</v>
       </c>
       <c r="N17" s="7">
-        <v>1030347</v>
+        <v>3693421</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2583,10 +2400,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>754</v>
+        <v>2407</v>
       </c>
       <c r="D18" s="7">
-        <v>709688</v>
+        <v>2454742</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2598,10 +2415,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>780</v>
+        <v>2676</v>
       </c>
       <c r="I18" s="7">
-        <v>813068</v>
+        <v>2738009</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2613,10 +2430,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1534</v>
+        <v>5083</v>
       </c>
       <c r="N18" s="7">
-        <v>1522755</v>
+        <v>5192750</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2629,171 +2446,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>679</v>
-      </c>
-      <c r="D19" s="7">
-        <v>702443</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F19" s="7" t="s">
+      <c r="A19" t="s">
         <v>106</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H19" s="7">
-        <v>774</v>
-      </c>
-      <c r="I19" s="7">
-        <v>796886</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1453</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1499329</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1728</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1752299</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1902</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1941123</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="M20" s="7">
-        <v>3630</v>
-      </c>
-      <c r="N20" s="7">
-        <v>3693421</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>2407</v>
-      </c>
-      <c r="D21" s="7">
-        <v>2454742</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>2676</v>
-      </c>
-      <c r="I21" s="7">
-        <v>2738009</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>5083</v>
-      </c>
-      <c r="N21" s="7">
-        <v>5192750</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2806,8 +2467,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D47A490-0782-41EF-AEE7-272F6CEA16DA}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{380508DF-9618-41C9-9389-9B9F4B5DABE8}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2823,7 +2484,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2924,49 +2585,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>25</v>
+        <v>131</v>
       </c>
       <c r="D4" s="7">
-        <v>24473</v>
+        <v>133337</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>125</v>
+        <v>17</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="H4" s="7">
-        <v>25</v>
+        <v>168</v>
       </c>
       <c r="I4" s="7">
-        <v>27519</v>
+        <v>182535</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="M4" s="7">
-        <v>50</v>
+        <v>299</v>
       </c>
       <c r="N4" s="7">
-        <v>51992</v>
+        <v>315872</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2975,49 +2636,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>80</v>
+        <v>449</v>
       </c>
       <c r="D5" s="7">
-        <v>76281</v>
+        <v>471566</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>134</v>
+        <v>27</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="H5" s="7">
-        <v>57</v>
+        <v>425</v>
       </c>
       <c r="I5" s="7">
-        <v>66299</v>
+        <v>454205</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="M5" s="7">
-        <v>137</v>
+        <v>874</v>
       </c>
       <c r="N5" s="7">
-        <v>142580</v>
+        <v>925771</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3026,10 +2687,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>105</v>
+        <v>580</v>
       </c>
       <c r="D6" s="7">
-        <v>100754</v>
+        <v>604903</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3041,10 +2702,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>82</v>
+        <v>593</v>
       </c>
       <c r="I6" s="7">
-        <v>93818</v>
+        <v>636740</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3056,10 +2717,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>187</v>
+        <v>1173</v>
       </c>
       <c r="N6" s="7">
-        <v>194572</v>
+        <v>1241643</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3079,49 +2740,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>106</v>
+        <v>237</v>
       </c>
       <c r="D7" s="7">
-        <v>108864</v>
+        <v>261371</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>37</v>
+        <v>126</v>
       </c>
       <c r="H7" s="7">
-        <v>143</v>
+        <v>218</v>
       </c>
       <c r="I7" s="7">
-        <v>155016</v>
+        <v>238073</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="M7" s="7">
-        <v>249</v>
+        <v>455</v>
       </c>
       <c r="N7" s="7">
-        <v>263880</v>
+        <v>499444</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3130,49 +2791,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>369</v>
+        <v>561</v>
       </c>
       <c r="D8" s="7">
-        <v>395285</v>
+        <v>604615</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="H8" s="7">
-        <v>368</v>
+        <v>604</v>
       </c>
       <c r="I8" s="7">
-        <v>387906</v>
+        <v>661791</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="M8" s="7">
-        <v>737</v>
+        <v>1165</v>
       </c>
       <c r="N8" s="7">
-        <v>783191</v>
+        <v>1266406</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3181,10 +2842,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>475</v>
+        <v>798</v>
       </c>
       <c r="D9" s="7">
-        <v>504149</v>
+        <v>865986</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3196,10 +2857,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>511</v>
+        <v>822</v>
       </c>
       <c r="I9" s="7">
-        <v>542922</v>
+        <v>899864</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3211,10 +2872,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>986</v>
+        <v>1620</v>
       </c>
       <c r="N9" s="7">
-        <v>1047071</v>
+        <v>1765850</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3228,55 +2889,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>237</v>
+        <v>169</v>
       </c>
       <c r="D10" s="7">
-        <v>261371</v>
+        <v>182132</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="H10" s="7">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="I10" s="7">
-        <v>238073</v>
+        <v>230692</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="M10" s="7">
-        <v>455</v>
+        <v>376</v>
       </c>
       <c r="N10" s="7">
-        <v>499444</v>
+        <v>412823</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3285,49 +2946,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>561</v>
+        <v>413</v>
       </c>
       <c r="D11" s="7">
-        <v>604615</v>
+        <v>453901</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="H11" s="7">
-        <v>604</v>
+        <v>408</v>
       </c>
       <c r="I11" s="7">
-        <v>661791</v>
+        <v>447805</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="M11" s="7">
-        <v>1165</v>
+        <v>821</v>
       </c>
       <c r="N11" s="7">
-        <v>1266406</v>
+        <v>901706</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3336,10 +2997,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>798</v>
+        <v>582</v>
       </c>
       <c r="D12" s="7">
-        <v>865986</v>
+        <v>636033</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3351,10 +3012,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>822</v>
+        <v>615</v>
       </c>
       <c r="I12" s="7">
-        <v>899864</v>
+        <v>678497</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3366,10 +3027,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1620</v>
+        <v>1197</v>
       </c>
       <c r="N12" s="7">
-        <v>1765850</v>
+        <v>1314529</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3383,55 +3044,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>169</v>
+        <v>277</v>
       </c>
       <c r="D13" s="7">
-        <v>182132</v>
+        <v>287022</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="H13" s="7">
-        <v>207</v>
+        <v>320</v>
       </c>
       <c r="I13" s="7">
-        <v>230692</v>
+        <v>331835</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="M13" s="7">
-        <v>376</v>
+        <v>597</v>
       </c>
       <c r="N13" s="7">
-        <v>412824</v>
+        <v>618857</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3440,49 +3101,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>413</v>
+        <v>496</v>
       </c>
       <c r="D14" s="7">
-        <v>453901</v>
+        <v>517662</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="H14" s="7">
-        <v>408</v>
+        <v>567</v>
       </c>
       <c r="I14" s="7">
-        <v>447805</v>
+        <v>601366</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="M14" s="7">
-        <v>821</v>
+        <v>1063</v>
       </c>
       <c r="N14" s="7">
-        <v>901706</v>
+        <v>1119028</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3491,10 +3152,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>582</v>
+        <v>773</v>
       </c>
       <c r="D15" s="7">
-        <v>636033</v>
+        <v>804684</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3506,10 +3167,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>615</v>
+        <v>887</v>
       </c>
       <c r="I15" s="7">
-        <v>678497</v>
+        <v>933201</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3521,10 +3182,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1197</v>
+        <v>1660</v>
       </c>
       <c r="N15" s="7">
-        <v>1314530</v>
+        <v>1737885</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3538,55 +3199,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>277</v>
+        <v>814</v>
       </c>
       <c r="D16" s="7">
-        <v>287022</v>
+        <v>863862</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="H16" s="7">
-        <v>320</v>
+        <v>913</v>
       </c>
       <c r="I16" s="7">
-        <v>331835</v>
+        <v>983135</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="M16" s="7">
-        <v>597</v>
+        <v>1727</v>
       </c>
       <c r="N16" s="7">
-        <v>618857</v>
+        <v>1846997</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3595,49 +3256,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>496</v>
+        <v>1919</v>
       </c>
       <c r="D17" s="7">
-        <v>517662</v>
+        <v>2047744</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="H17" s="7">
-        <v>567</v>
+        <v>2004</v>
       </c>
       <c r="I17" s="7">
-        <v>601366</v>
+        <v>2165167</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="M17" s="7">
-        <v>1063</v>
+        <v>3923</v>
       </c>
       <c r="N17" s="7">
-        <v>1119028</v>
+        <v>4212911</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3646,10 +3307,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>773</v>
+        <v>2733</v>
       </c>
       <c r="D18" s="7">
-        <v>804684</v>
+        <v>2911606</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3661,10 +3322,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>887</v>
+        <v>2917</v>
       </c>
       <c r="I18" s="7">
-        <v>933201</v>
+        <v>3148302</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3676,10 +3337,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1660</v>
+        <v>5650</v>
       </c>
       <c r="N18" s="7">
-        <v>1737885</v>
+        <v>6059908</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3692,171 +3353,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>814</v>
-      </c>
-      <c r="D19" s="7">
-        <v>863862</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="H19" s="7">
-        <v>913</v>
-      </c>
-      <c r="I19" s="7">
-        <v>983135</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1727</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1846997</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1919</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2047744</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2004</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2165167</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="M20" s="7">
-        <v>3923</v>
-      </c>
-      <c r="N20" s="7">
-        <v>4212911</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>2733</v>
-      </c>
-      <c r="D21" s="7">
-        <v>2911606</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>2917</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3148302</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>5650</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6059908</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3869,8 +3374,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2E27499-9ED8-4C17-9BDD-6B57CEAAE085}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{805ADE9E-AAE5-434E-BC06-3419553A710B}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3886,7 +3391,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>231</v>
+        <v>196</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3987,49 +3492,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="D4" s="7">
-        <v>28818</v>
+        <v>148481</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>232</v>
+        <v>130</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>233</v>
+        <v>197</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>234</v>
+        <v>198</v>
       </c>
       <c r="H4" s="7">
-        <v>32</v>
+        <v>165</v>
       </c>
       <c r="I4" s="7">
-        <v>31469</v>
+        <v>164500</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>235</v>
+        <v>199</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>236</v>
+        <v>200</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>237</v>
+        <v>201</v>
       </c>
       <c r="M4" s="7">
-        <v>60</v>
+        <v>308</v>
       </c>
       <c r="N4" s="7">
-        <v>60288</v>
+        <v>312981</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>159</v>
+        <v>202</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>238</v>
+        <v>203</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>239</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4038,49 +3543,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>67</v>
+        <v>364</v>
       </c>
       <c r="D5" s="7">
-        <v>69957</v>
+        <v>376512</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>240</v>
+        <v>139</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>241</v>
+        <v>205</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>242</v>
+        <v>206</v>
       </c>
       <c r="H5" s="7">
-        <v>70</v>
+        <v>379</v>
       </c>
       <c r="I5" s="7">
-        <v>69532</v>
+        <v>379863</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>243</v>
+        <v>207</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>244</v>
+        <v>208</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>245</v>
+        <v>209</v>
       </c>
       <c r="M5" s="7">
-        <v>137</v>
+        <v>743</v>
       </c>
       <c r="N5" s="7">
-        <v>139488</v>
+        <v>756375</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>168</v>
+        <v>210</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>246</v>
+        <v>211</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>247</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4089,10 +3594,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>95</v>
+        <v>507</v>
       </c>
       <c r="D6" s="7">
-        <v>98775</v>
+        <v>524993</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -4104,10 +3609,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>102</v>
+        <v>544</v>
       </c>
       <c r="I6" s="7">
-        <v>101001</v>
+        <v>544363</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4119,10 +3624,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>197</v>
+        <v>1051</v>
       </c>
       <c r="N6" s="7">
-        <v>199776</v>
+        <v>1069356</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4142,49 +3647,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>115</v>
+        <v>275</v>
       </c>
       <c r="D7" s="7">
-        <v>119662</v>
+        <v>302806</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>248</v>
+        <v>213</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>249</v>
+        <v>214</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
       <c r="H7" s="7">
-        <v>133</v>
+        <v>315</v>
       </c>
       <c r="I7" s="7">
-        <v>133030</v>
+        <v>330077</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>251</v>
+        <v>216</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>252</v>
+        <v>217</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>253</v>
+        <v>218</v>
       </c>
       <c r="M7" s="7">
-        <v>248</v>
+        <v>590</v>
       </c>
       <c r="N7" s="7">
-        <v>252693</v>
+        <v>632883</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>254</v>
+        <v>219</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>255</v>
+        <v>220</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>256</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4193,49 +3698,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>297</v>
+        <v>479</v>
       </c>
       <c r="D8" s="7">
-        <v>306556</v>
+        <v>513540</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>257</v>
+        <v>222</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>258</v>
+        <v>223</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>259</v>
+        <v>224</v>
       </c>
       <c r="H8" s="7">
-        <v>309</v>
+        <v>503</v>
       </c>
       <c r="I8" s="7">
-        <v>310331</v>
+        <v>536296</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>260</v>
+        <v>225</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>261</v>
+        <v>226</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>262</v>
+        <v>227</v>
       </c>
       <c r="M8" s="7">
-        <v>606</v>
+        <v>982</v>
       </c>
       <c r="N8" s="7">
-        <v>616887</v>
+        <v>1049836</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>263</v>
+        <v>228</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>264</v>
+        <v>229</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>265</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4244,10 +3749,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>412</v>
+        <v>754</v>
       </c>
       <c r="D9" s="7">
-        <v>426218</v>
+        <v>816346</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -4259,10 +3764,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>442</v>
+        <v>818</v>
       </c>
       <c r="I9" s="7">
-        <v>443361</v>
+        <v>866373</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4274,10 +3779,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>854</v>
+        <v>1572</v>
       </c>
       <c r="N9" s="7">
-        <v>869580</v>
+        <v>1682719</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4291,55 +3796,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>275</v>
+        <v>171</v>
       </c>
       <c r="D10" s="7">
-        <v>302806</v>
+        <v>183636</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>266</v>
+        <v>231</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>267</v>
+        <v>232</v>
       </c>
       <c r="H10" s="7">
-        <v>315</v>
+        <v>224</v>
       </c>
       <c r="I10" s="7">
-        <v>330077</v>
+        <v>233836</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>268</v>
+        <v>233</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>269</v>
+        <v>234</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>270</v>
+        <v>235</v>
       </c>
       <c r="M10" s="7">
-        <v>590</v>
+        <v>395</v>
       </c>
       <c r="N10" s="7">
-        <v>632883</v>
+        <v>417471</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>271</v>
+        <v>236</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>272</v>
+        <v>237</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>273</v>
+        <v>238</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4348,49 +3853,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>479</v>
+        <v>330</v>
       </c>
       <c r="D11" s="7">
-        <v>513540</v>
+        <v>366724</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>274</v>
+        <v>239</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>275</v>
+        <v>240</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
       <c r="H11" s="7">
-        <v>503</v>
+        <v>328</v>
       </c>
       <c r="I11" s="7">
-        <v>536296</v>
+        <v>345902</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>277</v>
+        <v>242</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>278</v>
+        <v>243</v>
       </c>
       <c r="M11" s="7">
-        <v>982</v>
+        <v>658</v>
       </c>
       <c r="N11" s="7">
-        <v>1049836</v>
+        <v>712627</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>279</v>
+        <v>244</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>280</v>
+        <v>245</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>281</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4399,10 +3904,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>754</v>
+        <v>501</v>
       </c>
       <c r="D12" s="7">
-        <v>816346</v>
+        <v>550360</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4414,10 +3919,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>818</v>
+        <v>552</v>
       </c>
       <c r="I12" s="7">
-        <v>866373</v>
+        <v>579738</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4429,10 +3934,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1572</v>
+        <v>1053</v>
       </c>
       <c r="N12" s="7">
-        <v>1682719</v>
+        <v>1130098</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4446,55 +3951,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>171</v>
+        <v>295</v>
       </c>
       <c r="D13" s="7">
-        <v>183636</v>
+        <v>293529</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>282</v>
+        <v>247</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>283</v>
+        <v>248</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>284</v>
+        <v>249</v>
       </c>
       <c r="H13" s="7">
-        <v>224</v>
+        <v>318</v>
       </c>
       <c r="I13" s="7">
-        <v>233836</v>
+        <v>337860</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>285</v>
+        <v>250</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>286</v>
+        <v>251</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>287</v>
+        <v>252</v>
       </c>
       <c r="M13" s="7">
-        <v>395</v>
+        <v>613</v>
       </c>
       <c r="N13" s="7">
-        <v>417471</v>
+        <v>631389</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>288</v>
+        <v>253</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>289</v>
+        <v>160</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>290</v>
+        <v>254</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4503,49 +4008,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>330</v>
+        <v>473</v>
       </c>
       <c r="D14" s="7">
-        <v>366724</v>
+        <v>479106</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>291</v>
+        <v>255</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>292</v>
+        <v>256</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>293</v>
+        <v>257</v>
       </c>
       <c r="H14" s="7">
-        <v>328</v>
+        <v>495</v>
       </c>
       <c r="I14" s="7">
-        <v>345902</v>
+        <v>538981</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>294</v>
+        <v>258</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>295</v>
+        <v>259</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>296</v>
+        <v>260</v>
       </c>
       <c r="M14" s="7">
-        <v>658</v>
+        <v>968</v>
       </c>
       <c r="N14" s="7">
-        <v>712627</v>
+        <v>1018087</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>297</v>
+        <v>261</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>298</v>
+        <v>262</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>299</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4554,10 +4059,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>501</v>
+        <v>768</v>
       </c>
       <c r="D15" s="7">
-        <v>550360</v>
+        <v>772635</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4569,10 +4074,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>552</v>
+        <v>813</v>
       </c>
       <c r="I15" s="7">
-        <v>579738</v>
+        <v>876841</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4584,10 +4089,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1053</v>
+        <v>1581</v>
       </c>
       <c r="N15" s="7">
-        <v>1130098</v>
+        <v>1649476</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4601,55 +4106,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>295</v>
+        <v>884</v>
       </c>
       <c r="D16" s="7">
-        <v>293529</v>
+        <v>928451</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>300</v>
+        <v>263</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>301</v>
+        <v>264</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>302</v>
+        <v>265</v>
       </c>
       <c r="H16" s="7">
-        <v>318</v>
+        <v>1022</v>
       </c>
       <c r="I16" s="7">
-        <v>337860</v>
+        <v>1066273</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>303</v>
+        <v>266</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>304</v>
+        <v>267</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>305</v>
+        <v>268</v>
       </c>
       <c r="M16" s="7">
-        <v>613</v>
+        <v>1906</v>
       </c>
       <c r="N16" s="7">
-        <v>631389</v>
+        <v>1994724</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>306</v>
+        <v>269</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>195</v>
+        <v>270</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>307</v>
+        <v>271</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4658,49 +4163,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>473</v>
+        <v>1646</v>
       </c>
       <c r="D17" s="7">
-        <v>479106</v>
+        <v>1735882</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>309</v>
+        <v>273</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>310</v>
+        <v>274</v>
       </c>
       <c r="H17" s="7">
-        <v>495</v>
+        <v>1705</v>
       </c>
       <c r="I17" s="7">
-        <v>538981</v>
+        <v>1801042</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>311</v>
+        <v>275</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>312</v>
+        <v>276</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>313</v>
+        <v>277</v>
       </c>
       <c r="M17" s="7">
-        <v>968</v>
+        <v>3351</v>
       </c>
       <c r="N17" s="7">
-        <v>1018087</v>
+        <v>3536924</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>314</v>
+        <v>278</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>315</v>
+        <v>279</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>204</v>
+        <v>280</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4709,10 +4214,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>768</v>
+        <v>2530</v>
       </c>
       <c r="D18" s="7">
-        <v>772635</v>
+        <v>2664333</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4724,10 +4229,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>813</v>
+        <v>2727</v>
       </c>
       <c r="I18" s="7">
-        <v>876841</v>
+        <v>2867315</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4739,10 +4244,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1581</v>
+        <v>5257</v>
       </c>
       <c r="N18" s="7">
-        <v>1649476</v>
+        <v>5531648</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4755,171 +4260,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>884</v>
-      </c>
-      <c r="D19" s="7">
-        <v>928451</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1022</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1066273</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1906</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1994724</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1646</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1735883</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1705</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1801042</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="M20" s="7">
-        <v>3351</v>
-      </c>
-      <c r="N20" s="7">
-        <v>3536925</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>2530</v>
-      </c>
-      <c r="D21" s="7">
-        <v>2664334</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>2727</v>
-      </c>
-      <c r="I21" s="7">
-        <v>2867315</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>5257</v>
-      </c>
-      <c r="N21" s="7">
-        <v>5531649</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4932,8 +4281,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADEB2BCC-FE05-468F-AFB8-56ADC6AF8184}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{614E38B4-F70D-4245-95EA-795E27D03F04}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4949,7 +4298,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>332</v>
+        <v>281</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5050,49 +4399,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>44</v>
+        <v>278</v>
       </c>
       <c r="D4" s="7">
-        <v>41997</v>
+        <v>255632</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>333</v>
+        <v>282</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>215</v>
+        <v>283</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>334</v>
+        <v>284</v>
       </c>
       <c r="H4" s="7">
-        <v>102</v>
+        <v>569</v>
       </c>
       <c r="I4" s="7">
-        <v>54124</v>
+        <v>313992</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>335</v>
+        <v>285</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>336</v>
+        <v>286</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>337</v>
+        <v>287</v>
       </c>
       <c r="M4" s="7">
-        <v>146</v>
+        <v>847</v>
       </c>
       <c r="N4" s="7">
-        <v>96122</v>
+        <v>569624</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>338</v>
+        <v>288</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>339</v>
+        <v>289</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>340</v>
+        <v>290</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5101,49 +4450,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>71</v>
+        <v>418</v>
       </c>
       <c r="D5" s="7">
-        <v>58477</v>
+        <v>355672</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>341</v>
+        <v>291</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>342</v>
+        <v>292</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>223</v>
+        <v>293</v>
       </c>
       <c r="H5" s="7">
-        <v>136</v>
+        <v>628</v>
       </c>
       <c r="I5" s="7">
-        <v>74162</v>
+        <v>337540</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>343</v>
+        <v>294</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>344</v>
+        <v>295</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>345</v>
+        <v>296</v>
       </c>
       <c r="M5" s="7">
-        <v>207</v>
+        <v>1046</v>
       </c>
       <c r="N5" s="7">
-        <v>132638</v>
+        <v>693212</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>346</v>
+        <v>297</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>347</v>
+        <v>298</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>348</v>
+        <v>299</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5152,10 +4501,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>115</v>
+        <v>696</v>
       </c>
       <c r="D6" s="7">
-        <v>100474</v>
+        <v>611304</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5167,10 +4516,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>238</v>
+        <v>1197</v>
       </c>
       <c r="I6" s="7">
-        <v>128286</v>
+        <v>651532</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5182,10 +4531,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>353</v>
+        <v>1893</v>
       </c>
       <c r="N6" s="7">
-        <v>228760</v>
+        <v>1262836</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5205,49 +4554,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>234</v>
+        <v>444</v>
       </c>
       <c r="D7" s="7">
-        <v>226774</v>
+        <v>467618</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>349</v>
+        <v>300</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>350</v>
+        <v>301</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>351</v>
+        <v>302</v>
       </c>
       <c r="H7" s="7">
-        <v>467</v>
+        <v>769</v>
       </c>
       <c r="I7" s="7">
-        <v>287285</v>
+        <v>486532</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>352</v>
+        <v>303</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>353</v>
+        <v>304</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>354</v>
+        <v>305</v>
       </c>
       <c r="M7" s="7">
-        <v>701</v>
+        <v>1213</v>
       </c>
       <c r="N7" s="7">
-        <v>514060</v>
+        <v>954150</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>355</v>
+        <v>306</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>356</v>
+        <v>307</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>357</v>
+        <v>308</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5256,49 +4605,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>347</v>
+        <v>492</v>
       </c>
       <c r="D8" s="7">
-        <v>299375</v>
+        <v>698836</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>358</v>
+        <v>309</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>359</v>
+        <v>310</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>360</v>
+        <v>311</v>
       </c>
       <c r="H8" s="7">
-        <v>492</v>
+        <v>717</v>
       </c>
       <c r="I8" s="7">
-        <v>282212</v>
+        <v>455793</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>361</v>
+        <v>312</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>362</v>
+        <v>313</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>363</v>
+        <v>314</v>
       </c>
       <c r="M8" s="7">
-        <v>839</v>
+        <v>1209</v>
       </c>
       <c r="N8" s="7">
-        <v>581586</v>
+        <v>1154629</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>364</v>
+        <v>315</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>365</v>
+        <v>316</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>366</v>
+        <v>317</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5307,10 +4656,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>581</v>
+        <v>936</v>
       </c>
       <c r="D9" s="7">
-        <v>526149</v>
+        <v>1166454</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5322,10 +4671,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>959</v>
+        <v>1486</v>
       </c>
       <c r="I9" s="7">
-        <v>569497</v>
+        <v>942325</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5337,10 +4686,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1540</v>
+        <v>2422</v>
       </c>
       <c r="N9" s="7">
-        <v>1095646</v>
+        <v>2108779</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -5354,55 +4703,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>444</v>
+        <v>286</v>
       </c>
       <c r="D10" s="7">
-        <v>499323</v>
+        <v>301860</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>367</v>
+        <v>318</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>368</v>
+        <v>319</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>369</v>
+        <v>320</v>
       </c>
       <c r="H10" s="7">
-        <v>769</v>
+        <v>445</v>
       </c>
       <c r="I10" s="7">
-        <v>548267</v>
+        <v>491764</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>370</v>
+        <v>321</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>371</v>
+        <v>322</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>372</v>
+        <v>323</v>
       </c>
       <c r="M10" s="7">
-        <v>1213</v>
+        <v>731</v>
       </c>
       <c r="N10" s="7">
-        <v>1047590</v>
+        <v>793624</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>373</v>
+        <v>324</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>374</v>
+        <v>325</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>363</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5411,49 +4760,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>492</v>
+        <v>369</v>
       </c>
       <c r="D11" s="7">
-        <v>516046</v>
+        <v>384407</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>375</v>
+        <v>326</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>376</v>
+        <v>327</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>377</v>
+        <v>328</v>
       </c>
       <c r="H11" s="7">
-        <v>717</v>
+        <v>579</v>
       </c>
       <c r="I11" s="7">
-        <v>493833</v>
+        <v>430289</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>378</v>
+        <v>329</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>379</v>
+        <v>330</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>380</v>
+        <v>331</v>
       </c>
       <c r="M11" s="7">
-        <v>1209</v>
+        <v>948</v>
       </c>
       <c r="N11" s="7">
-        <v>1009879</v>
+        <v>814696</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>381</v>
+        <v>332</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>353</v>
+        <v>132</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>382</v>
+        <v>333</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5462,10 +4811,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>936</v>
+        <v>655</v>
       </c>
       <c r="D12" s="7">
-        <v>1015369</v>
+        <v>686267</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5477,10 +4826,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>1486</v>
+        <v>1024</v>
       </c>
       <c r="I12" s="7">
-        <v>1042100</v>
+        <v>922053</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -5492,10 +4841,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>2422</v>
+        <v>1679</v>
       </c>
       <c r="N12" s="7">
-        <v>2057469</v>
+        <v>1608320</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -5509,55 +4858,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>286</v>
+        <v>465</v>
       </c>
       <c r="D13" s="7">
-        <v>313517</v>
+        <v>435504</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>383</v>
+        <v>334</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>384</v>
+        <v>335</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>385</v>
+        <v>336</v>
       </c>
       <c r="H13" s="7">
-        <v>445</v>
+        <v>735</v>
       </c>
       <c r="I13" s="7">
-        <v>424064</v>
+        <v>489922</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>367</v>
+        <v>337</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>386</v>
+        <v>338</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>387</v>
+        <v>339</v>
       </c>
       <c r="M13" s="7">
-        <v>731</v>
+        <v>1200</v>
       </c>
       <c r="N13" s="7">
-        <v>737581</v>
+        <v>925426</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>388</v>
+        <v>340</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>389</v>
+        <v>341</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>390</v>
+        <v>342</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5566,49 +4915,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>369</v>
+        <v>501</v>
       </c>
       <c r="D14" s="7">
-        <v>395024</v>
+        <v>454431</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>391</v>
+        <v>343</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>392</v>
+        <v>344</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>393</v>
+        <v>345</v>
       </c>
       <c r="H14" s="7">
-        <v>579</v>
+        <v>775</v>
       </c>
       <c r="I14" s="7">
-        <v>438124</v>
+        <v>572995</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>375</v>
+        <v>346</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>394</v>
+        <v>347</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>395</v>
+        <v>348</v>
       </c>
       <c r="M14" s="7">
-        <v>948</v>
+        <v>1276</v>
       </c>
       <c r="N14" s="7">
-        <v>833149</v>
+        <v>1027425</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>396</v>
+        <v>349</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>397</v>
+        <v>350</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>398</v>
+        <v>351</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5617,10 +4966,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>655</v>
+        <v>966</v>
       </c>
       <c r="D15" s="7">
-        <v>708541</v>
+        <v>889935</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -5632,10 +4981,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>1024</v>
+        <v>1510</v>
       </c>
       <c r="I15" s="7">
-        <v>862188</v>
+        <v>1062917</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -5647,10 +4996,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1679</v>
+        <v>2476</v>
       </c>
       <c r="N15" s="7">
-        <v>1570730</v>
+        <v>1952851</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5664,55 +5013,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>465</v>
+        <v>1473</v>
       </c>
       <c r="D16" s="7">
-        <v>453324</v>
+        <v>1460614</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>399</v>
+        <v>352</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>400</v>
+        <v>353</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>401</v>
+        <v>354</v>
       </c>
       <c r="H16" s="7">
-        <v>735</v>
+        <v>2518</v>
       </c>
       <c r="I16" s="7">
-        <v>547207</v>
+        <v>1782210</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>402</v>
+        <v>355</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>403</v>
+        <v>356</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>404</v>
+        <v>357</v>
       </c>
       <c r="M16" s="7">
-        <v>1200</v>
+        <v>3991</v>
       </c>
       <c r="N16" s="7">
-        <v>1000532</v>
+        <v>3242824</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>405</v>
+        <v>358</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>406</v>
+        <v>359</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>407</v>
+        <v>360</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5721,49 +5070,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>501</v>
+        <v>1780</v>
       </c>
       <c r="D17" s="7">
-        <v>473054</v>
+        <v>1893346</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>408</v>
+        <v>361</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>409</v>
+        <v>362</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>410</v>
+        <v>363</v>
       </c>
       <c r="H17" s="7">
-        <v>775</v>
+        <v>2699</v>
       </c>
       <c r="I17" s="7">
-        <v>567569</v>
+        <v>1796617</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>411</v>
+        <v>364</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>412</v>
+        <v>365</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>413</v>
+        <v>366</v>
       </c>
       <c r="M17" s="7">
-        <v>1276</v>
+        <v>4479</v>
       </c>
       <c r="N17" s="7">
-        <v>1040622</v>
+        <v>3689963</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>414</v>
+        <v>367</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>415</v>
+        <v>368</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>416</v>
+        <v>369</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5772,10 +5121,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>966</v>
+        <v>3253</v>
       </c>
       <c r="D18" s="7">
-        <v>926378</v>
+        <v>3353960</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -5787,10 +5136,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1510</v>
+        <v>5217</v>
       </c>
       <c r="I18" s="7">
-        <v>1114776</v>
+        <v>3578827</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5802,10 +5151,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>2476</v>
+        <v>8470</v>
       </c>
       <c r="N18" s="7">
-        <v>2041154</v>
+        <v>6932787</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -5818,171 +5167,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>1473</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1534937</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="H19" s="7">
-        <v>2518</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1860948</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="M19" s="7">
-        <v>3991</v>
-      </c>
-      <c r="N19" s="7">
-        <v>3395885</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1780</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1741975</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2699</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1855900</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="M20" s="7">
-        <v>4479</v>
-      </c>
-      <c r="N20" s="7">
-        <v>3597875</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3253</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3276912</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5217</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3716848</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>8470</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6993760</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
